--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Git/Treebank/Docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="62920" yWindow="4400" windowWidth="20620" windowHeight="11640" tabRatio="725" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="62925" yWindow="4395" windowWidth="20610" windowHeight="11640" tabRatio="725"/>
   </bookViews>
   <sheets>
     <sheet name="Par" sheetId="1" r:id="rId1"/>
@@ -28,11 +23,8 @@
     <sheet name="Saīsinājums" sheetId="17" r:id="rId14"/>
     <sheet name="Bezmorfoloģijas elements" sheetId="18" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="535">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
   <si>
-    <t>Balstīts pēdējā SemTi-Kamola tagseta no versijā dev.ailab.lv</t>
-  </si>
-  <si>
     <t>dev.ailab.lv norādītais pēdējo izmaiņu datums:</t>
   </si>
   <si>
@@ -5458,22 +5447,6 @@
     <t>pieturzīmju miskaste - jāsaprot precīza robeža starp šiem un reziduāļiem</t>
   </si>
   <si>
-    <r>
-      <t>Tips</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>openParenthesis, closeParenthesis</t>
   </si>
   <si>
@@ -6266,9 +6239,6 @@
     <t>vienīgā forma</t>
   </si>
   <si>
-    <t>bez normalizācijas?</t>
-  </si>
-  <si>
     <t>sakrīt ar formu?</t>
   </si>
   <si>
@@ -6278,13 +6248,25 @@
     <t>nav norādīta, bet manuāli marķējot ir jāpievieno</t>
   </si>
   <si>
-    <t>nepiemīt (manuāli marķējot var likt jebkurā pozīcijā, izņemot vārdšķiru, ja tas ir pēc būtības)</t>
-  </si>
-  <si>
     <t>nelokāms lietvārds, x-vārds</t>
   </si>
   <si>
     <t>DJ, SIA, m, kg, k-dze, USD</t>
+  </si>
+  <si>
+    <t>Daļēji balstīts pēdējā SemTi-Kamola tagseta no versijā dev.ailab.lv</t>
+  </si>
+  <si>
+    <t>nepiemīt (manuāli marķējot, var likt jebkurā pozīcijā, izņemot vārdšķiru, ja tas ir pēc būtības)</t>
+  </si>
+  <si>
+    <t>normalizē uz ' vai "</t>
+  </si>
+  <si>
+    <t>parasti sakrīt ar formu</t>
+  </si>
+  <si>
+    <t>nesen ieviests</t>
   </si>
 </sst>
 </file>
@@ -6389,7 +6371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6414,8 +6396,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -6465,11 +6453,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6656,19 +6655,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6696,9 +6683,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6714,6 +6698,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7062,113 +7101,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="18.95" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>1</v>
+        <v>530</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="89"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="84"/>
       <c r="D6" s="3">
         <v>40155</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="89"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="84"/>
       <c r="D7" s="3">
         <v>42101</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>527</v>
+      </c>
+      <c r="D12" s="86"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
         <v>0</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="85" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="62"/>
       <c r="C16" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="88"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="103"/>
       <c r="C17" s="16" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="67" t="s">
-        <v>435</v>
-      </c>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="83"/>
       <c r="C18" s="16" t="s">
-        <v>436</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7184,73 +7237,73 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.83203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I2" s="23">
         <v>1260</v>
@@ -7261,57 +7314,57 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>332</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>333</v>
       </c>
       <c r="I4" s="27">
         <v>1262</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="H5" s="27" t="s">
         <v>335</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>336</v>
       </c>
       <c r="I5" s="27">
         <v>1393</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>3</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
       <c r="E6" s="54" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="54"/>
@@ -7319,76 +7372,76 @@
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="77"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="58"/>
       <c r="I7" s="58"/>
-      <c r="J7" s="78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="E9" s="79" t="s">
-        <v>345</v>
-      </c>
       <c r="F9" s="48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="30"/>
@@ -7416,82 +7469,82 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>394</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>395</v>
       </c>
       <c r="I2" s="35">
         <v>1318</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52">
         <v>2</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -7500,40 +7553,40 @@
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
-      <c r="J3" s="80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
-      <c r="B4" s="77"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
-      <c r="J4" s="80"/>
-    </row>
-    <row r="5" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="76"/>
+    </row>
+    <row r="5" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -7557,82 +7610,82 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>398</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>399</v>
       </c>
       <c r="I2" s="35">
         <v>1342</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52">
         <v>2</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -7642,39 +7695,39 @@
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
-      <c r="B4" s="77"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
-      <c r="J4" s="78"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -7698,78 +7751,78 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>400</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>401</v>
       </c>
       <c r="E2" s="39"/>
       <c r="G2" s="23" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I2" s="23">
         <v>1372</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7777,98 +7830,101 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>427</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="60"/>
       <c r="C4" s="50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>405</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>406</v>
       </c>
       <c r="I4" s="50">
         <v>1448</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>408</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>409</v>
       </c>
       <c r="I5" s="27">
         <v>2081</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>411</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>412</v>
       </c>
       <c r="I6" s="27">
         <v>2790</v>
       </c>
       <c r="J6" s="27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="27" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="C7" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="H7" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="J7" s="27" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>419</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>420</v>
       </c>
       <c r="I8" s="27">
         <v>2077</v>
@@ -7876,33 +7932,33 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>422</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>423</v>
       </c>
       <c r="I9" s="27">
         <v>1439</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>424</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7920,182 +7976,207 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>430</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>432</v>
       </c>
       <c r="I2" s="23">
         <v>1382</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70">
+    <row r="3" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="71" t="s">
+      <c r="B3" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>529</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="92" t="s">
         <v>480</v>
       </c>
-      <c r="E3" s="71" t="s">
-        <v>434</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>533</v>
-      </c>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="74" t="s">
+      <c r="E5" s="93"/>
+      <c r="F5" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+    </row>
+    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="92" t="s">
         <v>481</v>
       </c>
-      <c r="E4" s="72" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="E6" s="93"/>
+      <c r="F6" s="92" t="s">
+        <v>474</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+    </row>
+    <row r="7" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="96" t="s">
         <v>482</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="74" t="s">
-        <v>478</v>
-      </c>
-      <c r="G5" s="74"/>
-    </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="74" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+    </row>
+    <row r="8" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="74" t="s">
-        <v>476</v>
-      </c>
-      <c r="G6" s="74"/>
-    </row>
-    <row r="7" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="83"/>
-      <c r="C7" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>484</v>
-      </c>
-      <c r="F7" s="84" t="s">
+      <c r="E8" s="96"/>
+      <c r="F8" s="96" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="83"/>
-      <c r="C8" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>485</v>
-      </c>
-      <c r="F8" s="84" t="s">
-        <v>479</v>
-      </c>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8105,172 +8186,172 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I2" s="23">
         <v>1382</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>27</v>
+      <c r="B3" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E3" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>452</v>
-      </c>
       <c r="E4" s="64" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
       <c r="J4" s="63"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8288,76 +8369,76 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="53" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="26"/>
+    <col min="11" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8368,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -8379,48 +8460,48 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="I4" s="27">
         <v>1256</v>
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>34</v>
       </c>
       <c r="I5" s="27">
         <v>1371</v>
@@ -8432,7 +8513,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -8440,99 +8521,99 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="23">
         <v>1297</v>
       </c>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="27">
         <v>1883</v>
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="27">
         <v>1880</v>
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <v>0</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G9" s="27"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>40</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="30">
         <v>1558</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -8540,7 +8621,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -8548,7 +8629,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="23">
         <v>1298</v>
@@ -8558,16 +8639,16 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="27">
         <v>1387</v>
@@ -8577,87 +8658,87 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="27">
         <v>1354</v>
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>492</v>
+        <v>49</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>490</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>492</v>
+      <c r="E15" s="80" t="s">
+        <v>490</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="27">
         <v>0</v>
       </c>
-      <c r="D16" s="72" t="s">
-        <v>71</v>
+      <c r="D16" s="70" t="s">
+        <v>70</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <v>5</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -8665,185 +8746,185 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="23">
         <v>1840</v>
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="27">
         <v>1331</v>
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="27">
         <v>1293</v>
       </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="27" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="27">
         <v>1265</v>
       </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="27">
         <v>1226</v>
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="27">
         <v>1326</v>
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="27">
         <v>1412</v>
       </c>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>68</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="27">
         <v>0</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <v>6</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -8851,171 +8932,171 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="23">
         <v>269</v>
       </c>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="27">
         <v>1</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="27">
         <v>2</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="27">
         <v>3</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="27">
         <v>4</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="40"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27">
         <v>5</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G31" s="40"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="27">
         <v>6</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G32" s="40"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27">
         <v>0</v>
       </c>
       <c r="D33" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
-      <c r="C34" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C34" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>462</v>
+      </c>
+      <c r="E34" s="102"/>
+      <c r="F34" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="101" t="s">
+        <v>513</v>
+      </c>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="C36" s="23"/>
       <c r="E36" s="24"/>
@@ -9030,55 +9111,55 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="71.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -9086,366 +9167,366 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="35">
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="J3" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="H4" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="I4" s="27">
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="J5" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="H6" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="I6" s="27">
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="40" t="s">
+      <c r="J7" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="J8" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="F9" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="I9" s="27">
         <v>1244</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="E10" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="27">
         <v>1244</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="J11" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="H12" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>116</v>
       </c>
       <c r="I12" s="27">
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="H13" s="27" t="s">
         <v>118</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>119</v>
       </c>
       <c r="I13" s="27">
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="86">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="81">
         <v>0</v>
       </c>
-      <c r="D14" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-    </row>
-    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" s="23">
         <v>1427</v>
       </c>
       <c r="J15" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="F16" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="H16" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="I16" s="27">
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="J17" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="F18" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="H18" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="I18" s="27">
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C19" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="J19" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="F20" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="H20" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>136</v>
       </c>
       <c r="I20" s="27">
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="H21" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="I21" s="27">
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="40" t="s">
+      <c r="H22" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>142</v>
       </c>
       <c r="I22" s="27">
         <v>1341</v>
@@ -9456,13 +9537,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I23" s="23">
         <v>1286</v>
@@ -9470,391 +9551,391 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C24" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="27" t="s">
         <v>145</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>146</v>
       </c>
       <c r="I24" s="27">
         <v>1367</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="I25" s="27">
         <v>1291</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>150</v>
       </c>
       <c r="I26" s="27">
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="27">
         <v>0</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>6</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="27" t="s">
         <v>154</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>155</v>
       </c>
       <c r="I29" s="27">
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="27" t="s">
         <v>156</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>157</v>
       </c>
       <c r="I30" s="27">
         <v>1322</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C31" s="86">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="81">
         <v>0</v>
       </c>
-      <c r="D31" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-    </row>
-    <row r="32" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+    </row>
+    <row r="32" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>7</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="23">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C33" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C34" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C36" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="41" t="s">
         <v>160</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>161</v>
       </c>
       <c r="G36" s="41"/>
       <c r="J36" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C37" s="86">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="81">
         <v>0</v>
       </c>
-      <c r="D37" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-    </row>
-    <row r="38" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+    </row>
+    <row r="38" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>8</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I38" s="23">
         <v>1328</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C39" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C40" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C41" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C42" s="27">
         <v>0</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>9</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
       <c r="H43" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I43" s="23">
         <v>1298</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="I44" s="27">
         <v>1387</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C45" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="I45" s="27">
         <v>1354</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C46" s="27">
         <v>0</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>10</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
       <c r="H47" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I47" s="23">
         <v>1413</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>169</v>
       </c>
       <c r="I48" s="27">
         <v>1227</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C49" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>171</v>
       </c>
       <c r="I49" s="27">
         <v>1346</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C50" s="27">
         <v>0</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>11</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I51" s="23">
         <v>2313</v>
       </c>
       <c r="J51" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="27" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C52" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>175</v>
-      </c>
       <c r="F52" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I52" s="27">
         <v>1905</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C53" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="40" t="s">
-        <v>177</v>
-      </c>
       <c r="H53" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I53" s="27">
         <v>1904</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
@@ -9870,55 +9951,55 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="40" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="71.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -9926,1112 +10007,1133 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="35">
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="J3" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="H4" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="I4" s="27">
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="G5" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="J5" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="G6" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="H6" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="I6" s="27">
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="J7" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="40" t="s">
+      <c r="J8" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="G9" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="I9" s="27">
         <v>1244</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="E10" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="27">
         <v>1244</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>3</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="J11" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="H12" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>116</v>
       </c>
       <c r="I12" s="27">
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="H13" s="27" t="s">
         <v>118</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>119</v>
       </c>
       <c r="I13" s="27">
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="86">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="81">
         <v>0</v>
       </c>
-      <c r="D14" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-    </row>
-    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <v>4</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" s="23">
         <v>1427</v>
       </c>
       <c r="J15" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="40" t="s">
+      <c r="H16" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="I16" s="27">
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="40" t="s">
+      <c r="J17" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="C18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" s="40" t="s">
+      <c r="H18" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="I18" s="27">
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="40" t="s">
+      <c r="J19" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="C20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="40" t="s">
+      <c r="H20" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>136</v>
       </c>
       <c r="I20" s="27">
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="H21" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="I21" s="27">
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="H22" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>142</v>
       </c>
       <c r="I22" s="27">
         <v>1341</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43">
         <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I23" s="22">
         <v>268</v>
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>189</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>191</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>192</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="28" t="s">
         <v>195</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>196</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <v>6</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="22">
         <v>1297</v>
       </c>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
       <c r="C28" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="26">
         <v>1883</v>
       </c>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="26">
         <v>1880</v>
       </c>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
       <c r="C30" s="27">
         <v>0</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>7</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="22">
         <v>1298</v>
       </c>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
       <c r="C32" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" s="26">
         <v>1387</v>
       </c>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="26"/>
       <c r="C33" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I33" s="26">
         <v>1354</v>
       </c>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="26"/>
       <c r="C34" s="27">
         <v>0</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <v>8</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="22">
         <v>1840</v>
       </c>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
       <c r="C36" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I36" s="26">
         <v>1331</v>
       </c>
       <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
       <c r="C37" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I37" s="26">
         <v>1293</v>
       </c>
       <c r="J37" s="26"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I38" s="26">
         <v>1265</v>
       </c>
       <c r="J38" s="26"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
       <c r="C39" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" s="26">
         <v>1226</v>
       </c>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
       <c r="C40" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I40" s="26">
         <v>1326</v>
       </c>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
       <c r="C41" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="26">
         <v>1412</v>
       </c>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
       <c r="C42" s="27">
         <v>0</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43">
         <v>9</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I43" s="22">
         <v>1413</v>
       </c>
       <c r="J43" s="22"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="26"/>
       <c r="C44" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
       <c r="H44" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I44" s="26">
         <v>1227</v>
       </c>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="26"/>
       <c r="C45" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I45" s="26">
         <v>1346</v>
       </c>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="26"/>
       <c r="C46" s="27">
         <v>0</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
     </row>
-    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <v>10</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="22">
         <v>1286</v>
       </c>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="26"/>
       <c r="C48" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
       <c r="H48" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="26">
         <v>1367</v>
       </c>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="26"/>
       <c r="C49" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="26">
         <v>1347</v>
       </c>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="26"/>
       <c r="C50" s="27">
         <v>0</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43">
         <v>11</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="H51" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I51" s="22">
         <v>1926</v>
       </c>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="26"/>
       <c r="C52" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>211</v>
       </c>
       <c r="I52" s="26">
         <v>2004</v>
       </c>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="26"/>
       <c r="C53" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H53" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>214</v>
       </c>
       <c r="I53" s="26">
         <v>2005</v>
       </c>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="26"/>
       <c r="C54" s="27">
         <v>0</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
     </row>
-    <row r="55" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="43">
+    <row r="55" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="97">
         <v>12</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="23" t="s">
+      <c r="I55" s="98">
+        <v>1419</v>
+      </c>
+      <c r="J55" s="98"/>
+    </row>
+    <row r="56" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="100"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="I55" s="23">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C56" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102" t="s">
         <v>465</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="H56" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" s="101">
+        <v>1420</v>
+      </c>
+      <c r="J56" s="101"/>
+    </row>
+    <row r="57" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="100"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="H57" s="101" t="s">
+        <v>237</v>
+      </c>
+      <c r="I57" s="101">
+        <v>1421</v>
+      </c>
+      <c r="J57" s="101"/>
+    </row>
+    <row r="58" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="100"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="101" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102" t="s">
         <v>467</v>
       </c>
-      <c r="H56" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I56" s="27">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C57" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="G57" s="40" t="s">
+      <c r="H58" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="I58" s="101">
+        <v>1422</v>
+      </c>
+      <c r="J58" s="101"/>
+    </row>
+    <row r="59" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="100"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101">
+        <v>0</v>
+      </c>
+      <c r="D59" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="102" t="s">
         <v>468</v>
       </c>
-      <c r="H57" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="I57" s="27">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C58" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="G58" s="40" t="s">
+      <c r="F59" s="102"/>
+      <c r="G59" s="102" t="s">
         <v>469</v>
       </c>
-      <c r="H58" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="I58" s="27">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C59" s="27">
-        <v>0</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+    </row>
+    <row r="60" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="66"/>
       <c r="C60" s="23"/>
       <c r="E60" s="24"/>
@@ -11048,76 +11150,76 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18:I18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="40" customWidth="1"/>
     <col min="6" max="6" width="19" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I2" s="23">
         <v>2005</v>
@@ -11128,93 +11230,93 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="H4" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>221</v>
       </c>
       <c r="I4" s="27">
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>223</v>
-      </c>
       <c r="J5" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="23">
         <v>1297</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>518</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="I7" s="27">
         <v>1883</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="27">
         <v>1880</v>
@@ -11225,13 +11327,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="23">
         <v>1398</v>
@@ -11239,13 +11341,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="I10" s="27">
         <v>1387</v>
@@ -11253,131 +11355,131 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="I11" s="27">
         <v>1354</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="23">
         <v>1840</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I13" s="27">
         <v>1331</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I14" s="27">
         <v>1293</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I15" s="27">
         <v>1265</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I16" s="27">
         <v>1226</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C17" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I17" s="27">
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I18" s="27">
         <v>1412</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <v>6</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I19" s="23">
         <v>1926</v>
@@ -11385,113 +11487,113 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I20" s="27">
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I21" s="27">
         <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43">
         <v>7</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I22" s="23">
         <v>1419</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="40" t="s">
+      <c r="H23" s="27" t="s">
         <v>234</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>235</v>
       </c>
       <c r="I23" s="27">
         <v>1420</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="H24" s="27" t="s">
         <v>237</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>238</v>
       </c>
       <c r="I24" s="27">
         <v>1421</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="H25" s="27" t="s">
         <v>240</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>241</v>
       </c>
       <c r="I25" s="27">
         <v>1422</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -11507,79 +11609,79 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="4"/>
+    <col min="10" max="10" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I2" s="23">
         <v>1334</v>
@@ -11591,7 +11693,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -11606,142 +11708,142 @@
       <c r="A4" s="44"/>
       <c r="B4" s="32"/>
       <c r="C4" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>350</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>351</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I4" s="27">
         <v>3027</v>
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>354</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>355</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I5" s="27">
         <v>3361</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I6" s="27">
         <v>3026</v>
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <v>3</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>338</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="27"/>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="81" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="E9" s="82" t="s">
+        <v>470</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>365</v>
       </c>
-      <c r="E9" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -11749,73 +11851,73 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="23">
         <v>1297</v>
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="32"/>
       <c r="C11" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="27">
         <v>1883</v>
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="27">
         <v>1880</v>
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27">
         <v>0</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="27"/>
@@ -11827,7 +11929,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -11835,67 +11937,67 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="23">
         <v>1398</v>
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="32"/>
       <c r="C15" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>370</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>371</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="27">
         <v>1387</v>
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="27">
         <v>1354</v>
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <v>6</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -11903,296 +12005,296 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="23">
         <v>1840</v>
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="32"/>
       <c r="C18" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I18" s="27">
         <v>1331</v>
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I19" s="27">
         <v>1293</v>
       </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I20" s="27">
         <v>1265</v>
       </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I21" s="27">
         <v>1226</v>
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I22" s="27">
         <v>1326</v>
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="27"/>
       <c r="C23" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I23" s="27">
         <v>1412</v>
       </c>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27">
         <v>0</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
         <v>7</v>
       </c>
       <c r="B25" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="C25" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="54" t="s">
+      <c r="E25" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="E25" s="55" t="s">
-        <v>375</v>
-      </c>
       <c r="F25" s="55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G25" s="55"/>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
       <c r="J25" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="E26" s="48" t="s">
-        <v>377</v>
-      </c>
       <c r="F26" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="E27" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>379</v>
-      </c>
       <c r="F27" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="F28" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G28" s="48"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E29" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>383</v>
-      </c>
       <c r="F29" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G29" s="48"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G30" s="48"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G31" s="48"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -12207,91 +12309,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" style="40" customWidth="1"/>
-    <col min="6" max="7" width="25.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="40" customWidth="1"/>
+    <col min="6" max="7" width="25.85546875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" s="23">
         <v>1370</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -12299,13 +12401,13 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="32"/>
       <c r="C4" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>247</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>248</v>
       </c>
       <c r="I4" s="27">
         <v>1463</v>
@@ -12313,41 +12415,41 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>249</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>250</v>
       </c>
       <c r="I5" s="27">
         <v>3014</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>251</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>252</v>
       </c>
       <c r="I6" s="27">
         <v>1359</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>253</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>254</v>
       </c>
       <c r="I7" s="27">
         <v>1270</v>
@@ -12355,27 +12457,27 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>255</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>256</v>
       </c>
       <c r="I8" s="27">
         <v>1309</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>258</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>259</v>
       </c>
       <c r="I9" s="27">
         <v>1321</v>
@@ -12383,13 +12485,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I10" s="27">
         <v>1380</v>
@@ -12397,13 +12499,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>261</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>262</v>
       </c>
       <c r="I11" s="27">
         <v>3006</v>
@@ -12414,13 +12516,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" s="23">
         <v>1328</v>
@@ -12431,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I13" s="27">
         <v>1288</v>
@@ -12442,38 +12544,38 @@
         <v>2</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I14" s="27">
         <v>1384</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="27">
         <v>3</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I15" s="27">
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C16" s="27">
         <v>0</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>276</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -12481,71 +12583,71 @@
         <v>4</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="23">
         <v>1297</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="C18" s="50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="50">
         <v>1883</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="C19" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="50">
         <v>1880</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="C20" s="50">
         <v>0</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G20" s="51"/>
     </row>
@@ -12554,13 +12656,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="23">
         <v>1398</v>
@@ -12568,241 +12670,241 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="I22" s="27">
         <v>1387</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>524</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="I23" s="27">
         <v>1354</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="27">
         <v>0</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <v>6</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I25" s="23">
         <v>1840</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I26" s="27">
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
+        <v>56</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I27" s="27">
         <v>1293</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I28" s="27">
         <v>1265</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I29" s="27">
         <v>1226</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I30" s="27">
         <v>1326</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>7</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I31" s="23">
         <v>2313</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="27">
         <v>1905</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I33" s="27">
         <v>1904</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52">
         <v>8</v>
       </c>
       <c r="B34" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="54" t="s">
+      <c r="E34" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="55" t="s">
         <v>270</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>271</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="54"/>
       <c r="I34" s="54"/>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="48" t="s">
         <v>272</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>273</v>
       </c>
       <c r="G35" s="48"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30">
         <v>0</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
@@ -12811,7 +12913,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -12831,231 +12933,231 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="27" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="47.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="I2" s="23">
         <v>1232</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="C4" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>288</v>
-      </c>
       <c r="F4" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I5" s="27">
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I6" s="27">
         <v>1421</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I7" s="27">
         <v>1422</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="27">
         <v>0</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="J9" s="23" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="F10" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="F10" s="27" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="F11" s="27" t="s">
         <v>298</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="F12" s="27" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="F13" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="F13" s="27" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="F14" s="27" t="s">
         <v>304</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -13075,73 +13177,73 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="27"/>
+    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="23">
         <v>1366</v>
@@ -13152,13 +13254,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="23">
         <v>2183</v>
@@ -13166,33 +13268,33 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>309</v>
-      </c>
       <c r="H4" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="27">
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>311</v>
-      </c>
       <c r="H5" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="27">
         <v>1360</v>
@@ -13203,181 +13305,181 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="23">
         <v>1398</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="I7" s="27">
         <v>1387</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="I8" s="27">
         <v>1354</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="27">
         <v>0</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I10" s="23">
         <v>3193</v>
       </c>
       <c r="J10" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="C11" s="27" t="s">
+      <c r="F11" s="40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="F11" s="40" t="s">
+      <c r="D13" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="27">
         <v>0</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>5</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>84</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G16" s="59"/>
     </row>
-    <row r="17" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="59"/>
       <c r="F17" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Git/Treebank/Docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="62925" yWindow="4395" windowWidth="20610" windowHeight="11640" tabRatio="725"/>
+    <workbookView xWindow="51920" yWindow="4720" windowWidth="20620" windowHeight="21620" tabRatio="725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Par" sheetId="1" r:id="rId1"/>
@@ -23,8 +28,11 @@
     <sheet name="Saīsinājums" sheetId="17" r:id="rId14"/>
     <sheet name="Bezmorfoloģijas elements" sheetId="18" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="536">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -6267,6 +6275,34 @@
   </si>
   <si>
     <t>nesen ieviests</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ja 5. pozīcija ir p vai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (daļēji lokāms vai nelokāms)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6460,7 +6496,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6695,15 +6731,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6753,6 +6780,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7103,46 +7139,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="18.95" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>530</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="3">
         <v>40155</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="3">
         <v>42101</v>
       </c>
@@ -7150,41 +7186,41 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="102" t="s">
         <v>527</v>
       </c>
-      <c r="D12" s="86"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="103"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="17">
         <v>0</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="102" t="s">
         <v>531</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>282</v>
       </c>
@@ -7196,19 +7232,19 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="103"/>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="100"/>
       <c r="C17" s="16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="83"/>
       <c r="C18" s="16" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="67" t="s">
         <v>433</v>
       </c>
@@ -7237,22 +7273,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -7284,7 +7320,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -7320,7 +7356,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
@@ -7337,7 +7373,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>9</v>
       </c>
@@ -7354,7 +7390,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <v>3</v>
       </c>
@@ -7372,7 +7408,7 @@
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="73"/>
       <c r="C7" s="58" t="s">
@@ -7392,7 +7428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
@@ -7410,7 +7446,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
@@ -7430,7 +7466,7 @@
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
@@ -7469,22 +7505,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -7516,7 +7552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -7539,7 +7575,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -7557,7 +7593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="73"/>
       <c r="C4" s="58" t="s">
@@ -7575,7 +7611,7 @@
       <c r="I4" s="58"/>
       <c r="J4" s="76"/>
     </row>
-    <row r="5" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
@@ -7610,22 +7646,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -7657,7 +7693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -7680,7 +7716,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -7698,7 +7734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="73"/>
       <c r="C4" s="58" t="s">
@@ -7716,7 +7752,7 @@
       <c r="I4" s="58"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
@@ -7751,22 +7787,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -7798,7 +7834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -7853,7 +7889,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>256</v>
       </c>
@@ -7873,7 +7909,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
@@ -7893,7 +7929,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>413</v>
       </c>
@@ -7913,7 +7949,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>50</v>
       </c>
@@ -7947,7 +7983,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>87</v>
       </c>
@@ -7979,22 +8015,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -8026,7 +8062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -8055,121 +8091,121 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87">
+    <row r="3" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="84">
         <v>2</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="86" t="s">
         <v>478</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="86" t="s">
         <v>432</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="86" t="s">
         <v>529</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-    </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+    </row>
+    <row r="4" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="89" t="s">
         <v>479</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="90" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="89" t="s">
         <v>455</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="89" t="s">
         <v>480</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="92" t="s">
+      <c r="E5" s="90"/>
+      <c r="F5" s="89" t="s">
         <v>476</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-    </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+    </row>
+    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="89" t="s">
         <v>481</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="92" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>474</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-    </row>
-    <row r="7" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96" t="s">
+      <c r="G6" s="89"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+    </row>
+    <row r="7" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="93" t="s">
         <v>482</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="93" t="s">
         <v>475</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-    </row>
-    <row r="8" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96" t="s">
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+    </row>
+    <row r="8" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="93" t="s">
         <v>483</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96" t="s">
+      <c r="E8" s="93"/>
+      <c r="F8" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
@@ -8189,22 +8225,22 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -8236,7 +8272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -8262,7 +8298,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -8282,7 +8318,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="63" t="s">
         <v>109</v>
       </c>
@@ -8300,7 +8336,7 @@
       <c r="I4" s="63"/>
       <c r="J4" s="63"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
@@ -8314,7 +8350,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>96</v>
       </c>
@@ -8373,22 +8409,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="53" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="26"/>
+    <col min="11" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -8420,7 +8456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -8460,7 +8496,7 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>4</v>
@@ -8483,7 +8519,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
         <v>5</v>
@@ -8528,7 +8564,7 @@
       </c>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
         <v>6</v>
@@ -8551,7 +8587,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
         <v>7</v>
@@ -8572,7 +8608,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <v>0</v>
@@ -8591,7 +8627,7 @@
       <c r="I9" s="71"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="30" t="s">
         <v>8</v>
@@ -8674,7 +8710,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="27" t="s">
         <v>14</v>
@@ -8693,7 +8729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
         <v>50</v>
@@ -8714,7 +8750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="27">
         <v>0</v>
@@ -8733,7 +8769,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <v>5</v>
       </c>
@@ -8753,7 +8789,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
         <v>10</v>
@@ -8774,7 +8810,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
         <v>11</v>
@@ -8795,7 +8831,7 @@
       </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
         <v>50</v>
@@ -8816,7 +8852,7 @@
       </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
         <v>12</v>
@@ -8837,7 +8873,7 @@
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
         <v>13</v>
@@ -8858,7 +8894,7 @@
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="27" t="s">
         <v>14</v>
@@ -8879,7 +8915,7 @@
       </c>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="C24" s="30" t="s">
         <v>9</v>
@@ -8900,7 +8936,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="C25" s="27">
         <v>0</v>
@@ -8919,7 +8955,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43">
         <v>6</v>
       </c>
@@ -8939,7 +8975,7 @@
       </c>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="27"/>
       <c r="C27" s="27">
         <v>1</v>
@@ -8955,7 +8991,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="27"/>
       <c r="C28" s="27">
         <v>2</v>
@@ -8971,7 +9007,7 @@
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="27"/>
       <c r="C29" s="27">
         <v>3</v>
@@ -8987,7 +9023,7 @@
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
       <c r="C30" s="27">
         <v>4</v>
@@ -9003,7 +9039,7 @@
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
       <c r="C31" s="27">
         <v>5</v>
@@ -9019,7 +9055,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
       <c r="C32" s="27">
         <v>6</v>
@@ -9035,7 +9071,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="27"/>
       <c r="C33" s="27">
         <v>0</v>
@@ -9056,28 +9092,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="27"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="E34" s="102"/>
-      <c r="F34" s="101" t="s">
+      <c r="E34" s="99"/>
+      <c r="F34" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="101" t="s">
+      <c r="G34" s="98" t="s">
         <v>513</v>
       </c>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101" t="s">
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
       <c r="C35" s="27" t="s">
         <v>16</v>
@@ -9096,7 +9132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43"/>
       <c r="C36" s="23"/>
       <c r="E36" s="24"/>
@@ -9115,22 +9151,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="71.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -9187,7 +9223,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -9201,7 +9237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
@@ -9218,7 +9254,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
@@ -9235,7 +9271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>96</v>
       </c>
@@ -9255,7 +9291,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>5</v>
       </c>
@@ -9272,7 +9308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>103</v>
       </c>
@@ -9289,7 +9325,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
@@ -9309,7 +9345,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>109</v>
       </c>
@@ -9332,7 +9368,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -9346,7 +9382,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
         <v>10</v>
       </c>
@@ -9363,7 +9399,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>82</v>
       </c>
@@ -9380,7 +9416,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="81">
         <v>0</v>
       </c>
@@ -9396,7 +9432,7 @@
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
     </row>
-    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -9416,7 +9452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
         <v>122</v>
       </c>
@@ -9433,7 +9469,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
         <v>16</v>
       </c>
@@ -9447,7 +9483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
         <v>4</v>
       </c>
@@ -9464,7 +9500,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
         <v>50</v>
       </c>
@@ -9478,7 +9514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
         <v>6</v>
       </c>
@@ -9495,7 +9531,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
         <v>10</v>
       </c>
@@ -9512,7 +9548,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
         <v>5</v>
       </c>
@@ -9563,7 +9599,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C25" s="27" t="s">
         <v>7</v>
       </c>
@@ -9577,7 +9613,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C26" s="27" t="s">
         <v>9</v>
       </c>
@@ -9591,7 +9627,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C27" s="27">
         <v>0</v>
       </c>
@@ -9605,7 +9641,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>6</v>
       </c>
@@ -9616,7 +9652,7 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C29" s="27" t="s">
         <v>109</v>
       </c>
@@ -9630,7 +9666,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C30" s="27" t="s">
         <v>122</v>
       </c>
@@ -9644,7 +9680,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31" s="81">
         <v>0</v>
       </c>
@@ -9660,7 +9696,7 @@
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
     </row>
-    <row r="32" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>7</v>
       </c>
@@ -9677,22 +9713,22 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C33" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C34" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C36" s="27" t="s">
         <v>122</v>
       </c>
@@ -9707,7 +9743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C37" s="81">
         <v>0</v>
       </c>
@@ -9723,7 +9759,7 @@
       <c r="I37" s="81"/>
       <c r="J37" s="81"/>
     </row>
-    <row r="38" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -9740,22 +9776,22 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C39" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C41" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C42" s="27">
         <v>0</v>
       </c>
@@ -9766,7 +9802,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>9</v>
       </c>
@@ -9783,7 +9819,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C44" s="27" t="s">
         <v>9</v>
       </c>
@@ -9797,7 +9833,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C45" s="27" t="s">
         <v>5</v>
       </c>
@@ -9811,7 +9847,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C46" s="27">
         <v>0</v>
       </c>
@@ -9825,7 +9861,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>10</v>
       </c>
@@ -9842,7 +9878,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C48" s="27" t="s">
         <v>12</v>
       </c>
@@ -9856,7 +9892,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C49" s="27" t="s">
         <v>5</v>
       </c>
@@ -9870,7 +9906,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C50" s="27">
         <v>0</v>
       </c>
@@ -9881,7 +9917,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>11</v>
       </c>
@@ -9901,7 +9937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C52" s="27" t="s">
         <v>10</v>
       </c>
@@ -9918,7 +9954,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C53" s="27" t="s">
         <v>82</v>
       </c>
@@ -9935,7 +9971,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
@@ -9950,27 +9986,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="40" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="71.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -10027,7 +10063,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -10041,7 +10077,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
@@ -10058,7 +10094,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
@@ -10075,7 +10111,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>96</v>
       </c>
@@ -10095,7 +10131,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>5</v>
       </c>
@@ -10112,7 +10148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>103</v>
       </c>
@@ -10129,7 +10165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
@@ -10149,7 +10185,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>109</v>
       </c>
@@ -10172,7 +10208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <v>3</v>
       </c>
@@ -10186,7 +10222,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
         <v>10</v>
       </c>
@@ -10203,7 +10239,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>82</v>
       </c>
@@ -10220,7 +10256,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="81">
         <v>0</v>
       </c>
@@ -10236,7 +10272,7 @@
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
     </row>
-    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <v>4</v>
       </c>
@@ -10256,7 +10292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
         <v>122</v>
       </c>
@@ -10276,7 +10312,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
         <v>16</v>
       </c>
@@ -10293,7 +10329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
         <v>4</v>
       </c>
@@ -10313,7 +10349,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
         <v>50</v>
       </c>
@@ -10330,7 +10366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
         <v>6</v>
       </c>
@@ -10350,7 +10386,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
         <v>10</v>
       </c>
@@ -10370,7 +10406,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
         <v>5</v>
       </c>
@@ -10387,7 +10423,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="43">
         <v>5</v>
       </c>
@@ -10406,7 +10442,7 @@
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="26"/>
       <c r="C24" s="27" t="s">
         <v>50</v>
@@ -10427,7 +10463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="26"/>
       <c r="C25" s="27" t="s">
         <v>5</v>
@@ -10448,7 +10484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="26"/>
       <c r="C26" s="27" t="s">
         <v>193</v>
@@ -10469,7 +10505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="43">
         <v>6</v>
       </c>
@@ -10488,7 +10524,7 @@
       </c>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="26"/>
       <c r="C28" s="27" t="s">
         <v>6</v>
@@ -10509,7 +10545,7 @@
       </c>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="26"/>
       <c r="C29" s="27" t="s">
         <v>7</v>
@@ -10530,7 +10566,7 @@
       </c>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="26"/>
       <c r="C30" s="27">
         <v>0</v>
@@ -10549,7 +10585,7 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43">
         <v>7</v>
       </c>
@@ -10568,7 +10604,7 @@
       </c>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="26"/>
       <c r="C32" s="27" t="s">
         <v>9</v>
@@ -10589,7 +10625,7 @@
       </c>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="26"/>
       <c r="C33" s="27" t="s">
         <v>5</v>
@@ -10610,7 +10646,7 @@
       </c>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="26"/>
       <c r="C34" s="27">
         <v>0</v>
@@ -10629,7 +10665,7 @@
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="43">
         <v>8</v>
       </c>
@@ -10648,7 +10684,7 @@
       </c>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="26"/>
       <c r="C36" s="27" t="s">
         <v>10</v>
@@ -10667,7 +10703,7 @@
       </c>
       <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="26"/>
       <c r="C37" s="27" t="s">
         <v>11</v>
@@ -10686,7 +10722,7 @@
       </c>
       <c r="J37" s="26"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="26"/>
       <c r="C38" s="27" t="s">
         <v>50</v>
@@ -10705,7 +10741,7 @@
       </c>
       <c r="J38" s="26"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="26"/>
       <c r="C39" s="27" t="s">
         <v>12</v>
@@ -10724,7 +10760,7 @@
       </c>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="26"/>
       <c r="C40" s="27" t="s">
         <v>13</v>
@@ -10743,7 +10779,7 @@
       </c>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="26"/>
       <c r="C41" s="27" t="s">
         <v>14</v>
@@ -10762,7 +10798,7 @@
       </c>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="26"/>
       <c r="C42" s="27">
         <v>0</v>
@@ -10781,7 +10817,7 @@
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="43">
         <v>9</v>
       </c>
@@ -10800,7 +10836,7 @@
       </c>
       <c r="J43" s="22"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="26"/>
       <c r="C44" s="27" t="s">
         <v>12</v>
@@ -10821,7 +10857,7 @@
       </c>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="26"/>
       <c r="C45" s="27" t="s">
         <v>5</v>
@@ -10842,7 +10878,7 @@
       </c>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B46" s="26"/>
       <c r="C46" s="27">
         <v>0</v>
@@ -10855,13 +10891,13 @@
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28" t="s">
-        <v>199</v>
+        <v>535</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
     </row>
-    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43">
         <v>10</v>
       </c>
@@ -10880,7 +10916,7 @@
       </c>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="26"/>
       <c r="C48" s="27" t="s">
         <v>5</v>
@@ -10901,7 +10937,7 @@
       </c>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49" s="26"/>
       <c r="C49" s="27" t="s">
         <v>9</v>
@@ -10922,7 +10958,7 @@
       </c>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B50" s="26"/>
       <c r="C50" s="27">
         <v>0</v>
@@ -10935,13 +10971,13 @@
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28" t="s">
-        <v>199</v>
+        <v>535</v>
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="43">
         <v>11</v>
       </c>
@@ -10960,7 +10996,7 @@
       </c>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" s="26"/>
       <c r="C52" s="27" t="s">
         <v>10</v>
@@ -10981,7 +11017,7 @@
       </c>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" s="26"/>
       <c r="C53" s="27" t="s">
         <v>82</v>
@@ -11002,7 +11038,7 @@
       </c>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B54" s="26"/>
       <c r="C54" s="27">
         <v>0</v>
@@ -11021,119 +11057,119 @@
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
     </row>
-    <row r="55" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="97">
+    <row r="55" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="94">
         <v>12</v>
       </c>
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="98" t="s">
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="I55" s="98">
+      <c r="I55" s="95">
         <v>1419</v>
       </c>
-      <c r="J55" s="98"/>
-    </row>
-    <row r="56" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101" t="s">
+      <c r="J55" s="95"/>
+    </row>
+    <row r="56" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="97"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="101" t="s">
+      <c r="D56" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="102" t="s">
+      <c r="E56" s="99" t="s">
         <v>463</v>
       </c>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102" t="s">
+      <c r="F56" s="99"/>
+      <c r="G56" s="99" t="s">
         <v>465</v>
       </c>
-      <c r="H56" s="101" t="s">
+      <c r="H56" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="I56" s="101">
+      <c r="I56" s="98">
         <v>1420</v>
       </c>
-      <c r="J56" s="101"/>
-    </row>
-    <row r="57" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101" t="s">
+      <c r="J56" s="98"/>
+    </row>
+    <row r="57" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="97"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="101" t="s">
+      <c r="D57" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="102" t="s">
+      <c r="E57" s="99" t="s">
         <v>464</v>
       </c>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102" t="s">
+      <c r="F57" s="99"/>
+      <c r="G57" s="99" t="s">
         <v>466</v>
       </c>
-      <c r="H57" s="101" t="s">
+      <c r="H57" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="I57" s="101">
+      <c r="I57" s="98">
         <v>1421</v>
       </c>
-      <c r="J57" s="101"/>
-    </row>
-    <row r="58" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101" t="s">
+      <c r="J57" s="98"/>
+    </row>
+    <row r="58" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="97"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="101" t="s">
+      <c r="D58" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="102" t="s">
+      <c r="E58" s="99" t="s">
         <v>464</v>
       </c>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102" t="s">
+      <c r="F58" s="99"/>
+      <c r="G58" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="H58" s="101" t="s">
+      <c r="H58" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="I58" s="101">
+      <c r="I58" s="98">
         <v>1422</v>
       </c>
-      <c r="J58" s="101"/>
-    </row>
-    <row r="59" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="100"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101">
+      <c r="J58" s="98"/>
+    </row>
+    <row r="59" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="97"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98">
         <v>0</v>
       </c>
-      <c r="D59" s="101" t="s">
+      <c r="D59" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="102" t="s">
+      <c r="E59" s="99" t="s">
         <v>468</v>
       </c>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102" t="s">
+      <c r="F59" s="99"/>
+      <c r="G59" s="99" t="s">
         <v>469</v>
       </c>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-    </row>
-    <row r="60" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+    </row>
+    <row r="60" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="C60" s="23"/>
       <c r="E60" s="24"/>
@@ -11153,22 +11189,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="40" customWidth="1"/>
     <col min="6" max="6" width="19" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -11200,7 +11236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -11236,7 +11272,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
@@ -11253,7 +11289,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
@@ -11267,7 +11303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
         <v>3</v>
       </c>
@@ -11288,7 +11324,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>6</v>
       </c>
@@ -11305,7 +11341,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>7</v>
       </c>
@@ -11367,7 +11403,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <v>5</v>
       </c>
@@ -11384,7 +11420,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>10</v>
       </c>
@@ -11398,7 +11434,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="27" t="s">
         <v>11</v>
       </c>
@@ -11412,7 +11448,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="27" t="s">
         <v>50</v>
       </c>
@@ -11426,7 +11462,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
         <v>12</v>
       </c>
@@ -11440,7 +11476,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
         <v>13</v>
       </c>
@@ -11454,7 +11490,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
         <v>14</v>
       </c>
@@ -11468,7 +11504,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43">
         <v>6</v>
       </c>
@@ -11502,7 +11538,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
         <v>82</v>
       </c>
@@ -11522,7 +11558,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43">
         <v>7</v>
       </c>
@@ -11539,7 +11575,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
         <v>5</v>
       </c>
@@ -11559,7 +11595,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="27" t="s">
         <v>4</v>
       </c>
@@ -11576,7 +11612,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="27" t="s">
         <v>9</v>
       </c>
@@ -11593,7 +11629,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43"/>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -11613,22 +11649,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -11660,7 +11696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -11728,7 +11764,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
@@ -11754,7 +11790,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
@@ -11776,7 +11812,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43">
         <v>3</v>
       </c>
@@ -11818,7 +11854,7 @@
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="27"/>
       <c r="C9" s="81" t="s">
@@ -11858,7 +11894,7 @@
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="32"/>
       <c r="C11" s="27" t="s">
@@ -11882,7 +11918,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
@@ -11906,7 +11942,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27">
@@ -11944,7 +11980,7 @@
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
       <c r="B15" s="32"/>
       <c r="C15" s="27" t="s">
@@ -11968,7 +12004,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
@@ -11992,7 +12028,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <v>6</v>
       </c>
@@ -12012,7 +12048,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="32"/>
       <c r="C18" s="27" t="s">
@@ -12032,7 +12068,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
@@ -12052,7 +12088,7 @@
       </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
@@ -12072,7 +12108,7 @@
       </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="44"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
@@ -12092,7 +12128,7 @@
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
@@ -12112,7 +12148,7 @@
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="44"/>
       <c r="B23" s="27"/>
       <c r="C23" s="50" t="s">
@@ -12132,7 +12168,7 @@
       </c>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="44"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27">
@@ -12150,7 +12186,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="52">
         <v>7</v>
       </c>
@@ -12176,7 +12212,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
@@ -12196,7 +12232,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
@@ -12216,7 +12252,7 @@
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
@@ -12236,7 +12272,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
@@ -12256,7 +12292,7 @@
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
@@ -12274,7 +12310,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
@@ -12292,7 +12328,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="66" t="s">
         <v>471</v>
       </c>
@@ -12314,21 +12350,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="40" customWidth="1"/>
-    <col min="6" max="7" width="25.85546875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="40" customWidth="1"/>
+    <col min="6" max="7" width="25.83203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -12360,7 +12396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -12385,7 +12421,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -12427,7 +12463,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
@@ -12441,7 +12477,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>50</v>
       </c>
@@ -12469,7 +12505,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
         <v>256</v>
       </c>
@@ -12550,7 +12586,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="27">
         <v>3</v>
       </c>
@@ -12564,7 +12600,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C16" s="27">
         <v>0</v>
       </c>
@@ -12595,7 +12631,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
       <c r="C18" s="50" t="s">
         <v>6</v>
@@ -12615,7 +12651,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="C19" s="50" t="s">
         <v>7</v>
@@ -12635,7 +12671,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
       <c r="C20" s="50">
         <v>0</v>
@@ -12682,7 +12718,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
         <v>5</v>
       </c>
@@ -12699,7 +12735,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="27">
         <v>0</v>
       </c>
@@ -12710,7 +12746,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="43">
         <v>6</v>
       </c>
@@ -12727,7 +12763,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C26" s="27" t="s">
         <v>10</v>
       </c>
@@ -12741,7 +12777,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="27" t="s">
         <v>11</v>
       </c>
@@ -12757,7 +12793,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="27" t="s">
         <v>50</v>
       </c>
@@ -12771,7 +12807,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C29" s="27" t="s">
         <v>12</v>
       </c>
@@ -12785,7 +12821,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="27" t="s">
         <v>13</v>
       </c>
@@ -12799,7 +12835,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43">
         <v>7</v>
       </c>
@@ -12816,7 +12852,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="27" t="s">
         <v>10</v>
       </c>
@@ -12830,7 +12866,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C33" s="27" t="s">
         <v>82</v>
       </c>
@@ -12853,7 +12889,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52">
         <v>8</v>
       </c>
@@ -12877,7 +12913,7 @@
       <c r="I34" s="54"/>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30" t="s">
@@ -12897,7 +12933,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30">
@@ -12913,7 +12949,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="43"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -12933,22 +12969,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="27" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="47.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -12980,7 +13016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -13003,7 +13039,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -13011,7 +13047,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="C4" s="50" t="s">
         <v>16</v>
@@ -13046,7 +13082,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>4</v>
       </c>
@@ -13063,7 +13099,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
@@ -13080,7 +13116,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27">
         <v>0</v>
       </c>
@@ -13094,7 +13130,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>3</v>
       </c>
@@ -13105,7 +13141,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>256</v>
       </c>
@@ -13116,7 +13152,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
         <v>6</v>
       </c>
@@ -13138,7 +13174,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>109</v>
       </c>
@@ -13149,7 +13185,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="27" t="s">
         <v>4</v>
       </c>
@@ -13177,22 +13213,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
@@ -13224,7 +13260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -13283,7 +13319,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>109</v>
       </c>
@@ -13317,7 +13353,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
@@ -13337,7 +13373,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>5</v>
       </c>
@@ -13357,7 +13393,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C9" s="27">
         <v>0</v>
       </c>
@@ -13371,7 +13407,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <v>4</v>
       </c>
@@ -13391,7 +13427,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
         <v>11</v>
       </c>
@@ -13405,7 +13441,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
         <v>50</v>
       </c>
@@ -13419,7 +13455,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>12</v>
       </c>
@@ -13430,7 +13466,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C14" s="27">
         <v>0</v>
       </c>
@@ -13444,7 +13480,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52">
         <v>5</v>
       </c>
@@ -13455,7 +13491,7 @@
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="58" t="s">
         <v>82</v>
       </c>
@@ -13468,7 +13504,7 @@
       </c>
       <c r="G16" s="59"/>
     </row>
-    <row r="17" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58" t="s">

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51920" yWindow="4720" windowWidth="20620" windowHeight="11640" tabRatio="725" activeTab="1"/>
+    <workbookView xWindow="52020" yWindow="4740" windowWidth="22320" windowHeight="28600" tabRatio="725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Par" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="542">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -247,9 +247,6 @@
     </r>
   </si>
   <si>
-    <t>Latvija</t>
-  </si>
-  <si>
     <t>properNoun</t>
   </si>
   <si>
@@ -6369,6 +6366,201 @@
   </si>
   <si>
     <t>daudzstāvu, arī milzu, papildu, pagaidu, piespiedu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pie izteicēja subjekts ģenitīvā. Vairs nelietojam no 2018.gada</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tika</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pateikts, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tapa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ieziemota, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> skaidrs,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kļūst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> laimīgs, durvis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stāv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vaļā, Viņa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>šķiet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> skaista. Zirņi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nāk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gatavi. Mamma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>izrādījās</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> priecīga par šādu risinājumu.</t>
+    </r>
+  </si>
+  <si>
+    <t>pārējie palīgverbi; arī: patstāvīgas nozīmes verbi, kas lietoli palīgverba funkcijā (jāmarķē manuāli). Verbs "kļūt" tiek lietots tikai kā palīgverbs.</t>
+  </si>
+  <si>
+    <t>Latvija, Vidusāzija</t>
   </si>
 </sst>
 </file>
@@ -7241,7 +7433,7 @@
     <row r="3" spans="2:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7275,16 +7467,16 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D12" s="108"/>
     </row>
@@ -7293,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
@@ -7303,34 +7495,34 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="62"/>
       <c r="C16" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="100"/>
       <c r="C17" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="83"/>
       <c r="C18" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>419</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7383,13 +7575,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -7398,7 +7590,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7412,15 +7604,15 @@
         <v>4</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I2" s="23">
         <v>1260</v>
@@ -7442,13 +7634,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>317</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>318</v>
       </c>
       <c r="I4" s="27">
         <v>1262</v>
@@ -7459,13 +7651,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="H5" s="27" t="s">
         <v>320</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>321</v>
       </c>
       <c r="I5" s="27">
         <v>1393</v>
@@ -7476,12 +7668,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
       <c r="E6" s="54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="54"/>
@@ -7496,17 +7688,17 @@
         <v>9</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="58"/>
       <c r="I7" s="58"/>
       <c r="J7" s="74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -7516,11 +7708,11 @@
         <v>4</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="30"/>
@@ -7531,16 +7723,16 @@
       <c r="A9" s="56"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="E9" s="75" t="s">
-        <v>330</v>
-      </c>
       <c r="F9" s="48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="30"/>
@@ -7554,11 +7746,11 @@
         <v>15</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="30"/>
@@ -7615,13 +7807,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -7630,7 +7822,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -7641,16 +7833,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>379</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>380</v>
       </c>
       <c r="I2" s="35">
         <v>1318</v>
@@ -7661,7 +7853,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -7671,7 +7863,7 @@
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -7681,11 +7873,11 @@
         <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -7699,11 +7891,11 @@
         <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -7756,13 +7948,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -7771,7 +7963,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -7782,16 +7974,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>383</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>384</v>
       </c>
       <c r="I2" s="35">
         <v>1342</v>
@@ -7802,7 +7994,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -7812,7 +8004,7 @@
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -7822,11 +8014,11 @@
         <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -7840,11 +8032,11 @@
         <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -7897,13 +8089,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -7912,7 +8104,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7923,23 +8115,23 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>385</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>386</v>
       </c>
       <c r="E2" s="39"/>
       <c r="G2" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I2" s="23">
         <v>1372</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7957,14 +8149,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>390</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>391</v>
       </c>
       <c r="I4" s="50">
         <v>1448</v>
@@ -7972,19 +8164,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>393</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>394</v>
       </c>
       <c r="I5" s="27">
         <v>2081</v>
@@ -7995,53 +8187,53 @@
         <v>9</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>396</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>397</v>
       </c>
       <c r="I6" s="27">
         <v>2790</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="H7" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>401</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>404</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>405</v>
       </c>
       <c r="I8" s="27">
         <v>2077</v>
@@ -8049,16 +8241,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>407</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="I9" s="27">
         <v>1439</v>
@@ -8066,16 +8258,16 @@
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>409</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8125,13 +8317,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -8140,7 +8332,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8151,22 +8343,22 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>415</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>416</v>
       </c>
       <c r="I2" s="23">
         <v>1382</v>
@@ -8183,13 +8375,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G3" s="86"/>
       <c r="H3" s="87"/>
@@ -8203,13 +8395,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="91"/>
@@ -8223,11 +8415,11 @@
         <v>12</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E5" s="90"/>
       <c r="F5" s="89" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="91"/>
@@ -8241,11 +8433,11 @@
         <v>14</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E6" s="90"/>
       <c r="F6" s="89" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="91"/>
@@ -8259,11 +8451,11 @@
         <v>15</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E7" s="93"/>
       <c r="F7" s="93" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
@@ -8274,14 +8466,14 @@
       <c r="A8" s="92"/>
       <c r="B8" s="93"/>
       <c r="C8" s="93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E8" s="93"/>
       <c r="F8" s="93" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -8335,13 +8527,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -8350,7 +8542,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8361,19 +8553,19 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>422</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>423</v>
       </c>
       <c r="I2" s="23">
         <v>1382</v>
@@ -8390,27 +8582,27 @@
         <v>7</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="63"/>
@@ -8422,53 +8614,53 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>534</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>425</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8486,8 +8678,8 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8519,13 +8711,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -8534,7 +8726,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -8552,10 +8744,10 @@
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8586,13 +8778,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>28</v>
@@ -8612,13 +8804,13 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="27">
         <v>1371</v>
@@ -8630,7 +8822,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -8638,7 +8830,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="23">
         <v>1297</v>
@@ -8651,17 +8843,17 @@
         <v>6</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>442</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>443</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="27">
         <v>1883</v>
@@ -8674,7 +8866,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40" t="s">
@@ -8682,7 +8874,7 @@
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="27">
         <v>1880</v>
@@ -8695,13 +8887,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="71"/>
@@ -8714,23 +8906,23 @@
         <v>8</v>
       </c>
       <c r="D10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="48" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="30">
         <v>1558</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -8738,7 +8930,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -8746,7 +8938,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="23">
         <v>1298</v>
@@ -8759,13 +8951,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="27">
         <v>1387</v>
@@ -8778,13 +8970,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="27">
         <v>1354</v>
@@ -8797,42 +8989,42 @@
         <v>14</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -8841,13 +9033,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -8859,7 +9051,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -8867,7 +9059,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="23">
         <v>1840</v>
@@ -8880,7 +9072,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
@@ -8888,7 +9080,7 @@
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="27">
         <v>1331</v>
@@ -8901,15 +9093,15 @@
         <v>11</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="27">
         <v>1293</v>
@@ -8919,18 +9111,18 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="27">
         <v>1265</v>
@@ -8943,15 +9135,15 @@
         <v>12</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="27">
         <v>1226</v>
@@ -8964,15 +9156,15 @@
         <v>13</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="27">
         <v>1326</v>
@@ -8985,15 +9177,15 @@
         <v>14</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="27">
         <v>1412</v>
@@ -9006,19 +9198,19 @@
         <v>9</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="F24" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>63</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -9027,13 +9219,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -9045,7 +9237,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -9053,7 +9245,7 @@
       <c r="F26" s="39"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="23">
         <v>269</v>
@@ -9066,10 +9258,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>475</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>476</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="27"/>
@@ -9082,10 +9274,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>477</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>478</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="27"/>
@@ -9098,10 +9290,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="40" t="s">
         <v>479</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>480</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="27"/>
@@ -9114,10 +9306,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="40"/>
       <c r="H30" s="27"/>
@@ -9130,10 +9322,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="F31" s="40" t="s">
         <v>483</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>484</v>
       </c>
       <c r="G31" s="40"/>
       <c r="H31" s="27"/>
@@ -9146,10 +9338,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="F32" s="40" t="s">
         <v>485</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>486</v>
       </c>
       <c r="G32" s="40"/>
       <c r="H32" s="27"/>
@@ -9162,19 +9354,19 @@
         <v>0</v>
       </c>
       <c r="D33" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>67</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -9183,19 +9375,19 @@
         <v>11</v>
       </c>
       <c r="D34" s="98" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E34" s="99"/>
       <c r="F34" s="99" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G34" s="98" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H34" s="98"/>
       <c r="I34" s="98"/>
       <c r="J34" s="98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -9204,17 +9396,17 @@
         <v>15</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -9235,7 +9427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD53"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9267,13 +9459,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -9282,7 +9474,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -9296,15 +9488,15 @@
         <v>14</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="35">
         <v>1424</v>
@@ -9321,7 +9513,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="J3" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -9329,50 +9521,53 @@
         <v>6</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="H4" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="I4" s="27">
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="27" t="s">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="C5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>71</v>
+      <c r="G5" s="48"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="76" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="H6" s="27" t="s">
         <v>95</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>96</v>
       </c>
       <c r="I6" s="27">
         <v>1329</v>
@@ -9383,33 +9578,33 @@
         <v>5</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>98</v>
-      </c>
       <c r="J7" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>101</v>
-      </c>
       <c r="J8" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -9417,42 +9612,42 @@
         <v>4</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="F9" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="I9" s="27">
         <v>1244</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>106</v>
-      </c>
       <c r="E10" s="40" t="s">
-        <v>176</v>
+        <v>540</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>175</v>
+        <v>539</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="27">
         <v>1244</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9460,13 +9655,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="J11" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -9474,13 +9669,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="H12" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="I12" s="27">
         <v>1905</v>
@@ -9488,16 +9683,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="H13" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="I13" s="27">
         <v>1904</v>
@@ -9508,10 +9703,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
@@ -9524,33 +9719,33 @@
         <v>4</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="23">
         <v>1427</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="F16" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="H16" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="I16" s="27">
         <v>1885</v>
@@ -9561,13 +9756,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="40" t="s">
-        <v>123</v>
-      </c>
       <c r="J17" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -9575,13 +9770,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="H18" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="I18" s="27">
         <v>1258</v>
@@ -9589,16 +9784,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="40" t="s">
-        <v>128</v>
-      </c>
       <c r="J19" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -9606,13 +9801,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="H20" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="I20" s="27">
         <v>1844</v>
@@ -9623,13 +9818,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="H21" s="27" t="s">
         <v>133</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>134</v>
       </c>
       <c r="I21" s="27">
         <v>1312</v>
@@ -9640,16 +9835,16 @@
         <v>5</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="40" t="s">
+      <c r="H22" s="27" t="s">
         <v>136</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>137</v>
       </c>
       <c r="I22" s="27">
         <v>1341</v>
@@ -9660,13 +9855,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I23" s="23">
         <v>1286</v>
@@ -9677,10 +9872,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="27" t="s">
         <v>140</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>141</v>
       </c>
       <c r="I24" s="27">
         <v>1367</v>
@@ -9691,10 +9886,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>142</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>143</v>
       </c>
       <c r="I25" s="27">
         <v>1291</v>
@@ -9705,10 +9900,10 @@
         <v>9</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>145</v>
       </c>
       <c r="I26" s="27">
         <v>1347</v>
@@ -9719,13 +9914,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9733,7 +9928,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -9741,13 +9936,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C29" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>150</v>
       </c>
       <c r="I29" s="27">
         <v>1405</v>
@@ -9755,13 +9950,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C30" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="27" t="s">
         <v>151</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>152</v>
       </c>
       <c r="I30" s="27">
         <v>1322</v>
@@ -9772,10 +9967,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F31" s="82"/>
       <c r="G31" s="82"/>
@@ -9788,13 +9983,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="23">
         <v>269</v>
@@ -9817,17 +10012,17 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C36" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="41" t="s">
         <v>155</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>156</v>
       </c>
       <c r="G36" s="41"/>
       <c r="J36" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -9835,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F37" s="82"/>
       <c r="G37" s="82"/>
@@ -9851,13 +10046,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I38" s="23">
         <v>1328</v>
@@ -9883,10 +10078,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9894,13 +10089,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
       <c r="H43" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43" s="23">
         <v>1298</v>
@@ -9911,10 +10106,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="I44" s="27">
         <v>1387</v>
@@ -9925,10 +10120,10 @@
         <v>5</v>
       </c>
       <c r="D45" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>46</v>
       </c>
       <c r="I45" s="27">
         <v>1354</v>
@@ -9939,13 +10134,13 @@
         <v>0</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9953,13 +10148,13 @@
         <v>10</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
       <c r="H47" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I47" s="23">
         <v>1413</v>
@@ -9970,10 +10165,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="27" t="s">
         <v>163</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>164</v>
       </c>
       <c r="I48" s="27">
         <v>1227</v>
@@ -9984,10 +10179,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>166</v>
       </c>
       <c r="I49" s="27">
         <v>1346</v>
@@ -9998,10 +10193,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10009,19 +10204,19 @@
         <v>11</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I51" s="23">
         <v>2313</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -10029,13 +10224,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I52" s="27">
         <v>1905</v>
@@ -10043,16 +10238,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C53" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="40" t="s">
-        <v>172</v>
-      </c>
       <c r="H53" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I53" s="27">
         <v>1904</v>
@@ -10107,13 +10302,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -10122,7 +10317,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10136,15 +10331,15 @@
         <v>14</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="35">
         <v>1424</v>
@@ -10161,7 +10356,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="J3" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -10169,13 +10364,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="H4" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="I4" s="27">
         <v>1400</v>
@@ -10186,33 +10381,33 @@
         <v>11</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>91</v>
-      </c>
       <c r="J5" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="H6" s="27" t="s">
         <v>95</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>96</v>
       </c>
       <c r="I6" s="27">
         <v>1329</v>
@@ -10223,33 +10418,33 @@
         <v>5</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>98</v>
-      </c>
       <c r="J7" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>101</v>
-      </c>
       <c r="J8" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -10257,16 +10452,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="F9" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="I9" s="27">
         <v>1244</v>
@@ -10274,25 +10469,25 @@
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>106</v>
-      </c>
       <c r="E10" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="27">
         <v>1244</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10300,13 +10495,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="J11" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -10314,13 +10509,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="H12" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="I12" s="27">
         <v>1905</v>
@@ -10328,16 +10523,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="H13" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="I13" s="27">
         <v>1904</v>
@@ -10348,10 +10543,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
@@ -10364,36 +10559,36 @@
         <v>4</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="23">
         <v>1427</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="40" t="s">
+      <c r="H16" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="I16" s="27">
         <v>1885</v>
@@ -10404,16 +10599,16 @@
         <v>15</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>123</v>
-      </c>
       <c r="J17" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -10421,17 +10616,17 @@
         <v>4</v>
       </c>
       <c r="D18" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>124</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>125</v>
       </c>
       <c r="G18" s="51"/>
       <c r="H18" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18" s="27">
         <v>1258</v>
@@ -10439,19 +10634,19 @@
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>128</v>
-      </c>
       <c r="J19" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -10459,16 +10654,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="40" t="s">
+      <c r="H20" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="I20" s="27">
         <v>1844</v>
@@ -10479,16 +10674,16 @@
         <v>10</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="40" t="s">
+      <c r="H21" s="27" t="s">
         <v>133</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>134</v>
       </c>
       <c r="I21" s="27">
         <v>1312</v>
@@ -10499,13 +10694,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="H22" s="27" t="s">
         <v>136</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>137</v>
       </c>
       <c r="I22" s="27">
         <v>1341</v>
@@ -10516,14 +10711,14 @@
         <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23" s="22">
         <v>268</v>
@@ -10533,22 +10728,22 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="26"/>
       <c r="C24" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="F24" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>184</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -10557,40 +10752,40 @@
         <v>5</v>
       </c>
       <c r="D25" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="F25" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>187</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="26"/>
       <c r="C26" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="F26" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>191</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10598,14 +10793,14 @@
         <v>6</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" s="22">
         <v>1297</v>
@@ -10618,15 +10813,15 @@
         <v>6</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="26">
         <v>1883</v>
@@ -10639,15 +10834,15 @@
         <v>7</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="26">
         <v>1880</v>
@@ -10660,13 +10855,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="26"/>
@@ -10678,14 +10873,14 @@
         <v>7</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31" s="22">
         <v>1298</v>
@@ -10698,15 +10893,15 @@
         <v>9</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" s="26">
         <v>1387</v>
@@ -10719,15 +10914,15 @@
         <v>5</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" s="26">
         <v>1354</v>
@@ -10740,13 +10935,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="26"/>
@@ -10758,14 +10953,14 @@
         <v>8</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I35" s="22">
         <v>1840</v>
@@ -10778,13 +10973,13 @@
         <v>10</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I36" s="26">
         <v>1331</v>
@@ -10797,13 +10992,13 @@
         <v>11</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37" s="26">
         <v>1293</v>
@@ -10813,16 +11008,16 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="26"/>
       <c r="C38" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I38" s="26">
         <v>1265</v>
@@ -10835,13 +11030,13 @@
         <v>12</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" s="26">
         <v>1226</v>
@@ -10854,13 +11049,13 @@
         <v>13</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" s="26">
         <v>1326</v>
@@ -10873,13 +11068,13 @@
         <v>14</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="26">
         <v>1412</v>
@@ -10892,13 +11087,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="26"/>
@@ -10910,14 +11105,14 @@
         <v>9</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I43" s="22">
         <v>1413</v>
@@ -10930,15 +11125,15 @@
         <v>12</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
       <c r="H44" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I44" s="26">
         <v>1227</v>
@@ -10951,15 +11146,15 @@
         <v>5</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I45" s="26">
         <v>1346</v>
@@ -10972,13 +11167,13 @@
         <v>0</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="F46" s="28" t="s">
         <v>526</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>527</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="26"/>
@@ -10990,14 +11185,14 @@
         <v>10</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I47" s="22">
         <v>1286</v>
@@ -11010,15 +11205,15 @@
         <v>5</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
       <c r="H48" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I48" s="26">
         <v>1367</v>
@@ -11031,15 +11226,15 @@
         <v>9</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I49" s="26">
         <v>1347</v>
@@ -11052,13 +11247,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="F50" s="28" t="s">
         <v>526</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>527</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
@@ -11070,14 +11265,14 @@
         <v>11</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="H51" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I51" s="22">
         <v>1926</v>
@@ -11090,15 +11285,15 @@
         <v>10</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I52" s="26">
         <v>2004</v>
@@ -11108,18 +11303,18 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" s="26"/>
       <c r="C53" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I53" s="26">
         <v>2005</v>
@@ -11132,13 +11327,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>526</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>527</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="26"/>
@@ -11150,7 +11345,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C55" s="95"/>
       <c r="D55" s="95"/>
@@ -11158,7 +11353,7 @@
       <c r="F55" s="96"/>
       <c r="G55" s="96"/>
       <c r="H55" s="95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I55" s="95">
         <v>1419</v>
@@ -11172,17 +11367,17 @@
         <v>5</v>
       </c>
       <c r="D56" s="98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E56" s="99" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F56" s="99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G56" s="99"/>
       <c r="H56" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I56" s="98">
         <v>1420</v>
@@ -11196,17 +11391,17 @@
         <v>4</v>
       </c>
       <c r="D57" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E57" s="99" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F57" s="99" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G57" s="99"/>
       <c r="H57" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I57" s="98">
         <v>1421</v>
@@ -11220,17 +11415,17 @@
         <v>9</v>
       </c>
       <c r="D58" s="98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="99" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F58" s="99" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G58" s="99"/>
       <c r="H58" s="98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I58" s="98">
         <v>1422</v>
@@ -11244,13 +11439,13 @@
         <v>0</v>
       </c>
       <c r="D59" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="99" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F59" s="99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G59" s="99"/>
       <c r="H59" s="98"/>
@@ -11262,7 +11457,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C60" s="95"/>
       <c r="D60" s="95"/>
@@ -11270,13 +11465,13 @@
       <c r="F60" s="96"/>
       <c r="G60" s="96"/>
       <c r="H60" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I60" s="95">
         <v>2313</v>
       </c>
       <c r="J60" s="95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -11286,15 +11481,15 @@
         <v>10</v>
       </c>
       <c r="D61" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61" s="99"/>
       <c r="F61" s="99" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G61" s="99"/>
       <c r="H61" s="98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I61" s="98">
         <v>1905</v>
@@ -11305,18 +11500,18 @@
       <c r="A62" s="103"/>
       <c r="B62" s="104"/>
       <c r="C62" s="104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62" s="104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62" s="105"/>
       <c r="F62" s="105" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G62" s="105"/>
       <c r="H62" s="104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I62" s="104">
         <v>1904</v>
@@ -11334,7 +11529,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -11367,13 +11562,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -11382,7 +11577,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -11396,15 +11591,15 @@
         <v>12</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2" s="23">
         <v>2005</v>
@@ -11426,13 +11621,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="H4" s="27" t="s">
         <v>211</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>212</v>
       </c>
       <c r="I4" s="27">
         <v>1477</v>
@@ -11443,13 +11638,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>214</v>
-      </c>
       <c r="J5" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -11457,17 +11652,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>232</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="23">
         <v>1297</v>
@@ -11478,13 +11673,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>35</v>
       </c>
       <c r="I7" s="27">
         <v>1883</v>
@@ -11495,13 +11690,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="27">
         <v>1880</v>
@@ -11512,13 +11707,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="23">
         <v>1398</v>
@@ -11529,10 +11724,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="I10" s="27">
         <v>1387</v>
@@ -11543,10 +11738,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>46</v>
       </c>
       <c r="I11" s="27">
         <v>1354</v>
@@ -11557,13 +11752,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="23">
         <v>1840</v>
@@ -11574,10 +11769,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I13" s="27">
         <v>1331</v>
@@ -11588,10 +11783,10 @@
         <v>11</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I14" s="27">
         <v>1293</v>
@@ -11599,13 +11794,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I15" s="27">
         <v>1265</v>
@@ -11616,10 +11811,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I16" s="27">
         <v>1226</v>
@@ -11630,10 +11825,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I17" s="27">
         <v>1326</v>
@@ -11644,10 +11839,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I18" s="27">
         <v>1412</v>
@@ -11658,13 +11853,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I19" s="23">
         <v>1926</v>
@@ -11675,13 +11870,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I20" s="27">
         <v>2004</v>
@@ -11689,19 +11884,19 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I21" s="27">
         <v>2005</v>
@@ -11712,13 +11907,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I22" s="23">
         <v>1419</v>
@@ -11729,16 +11924,16 @@
         <v>5</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="40" t="s">
+      <c r="H23" s="27" t="s">
         <v>224</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>225</v>
       </c>
       <c r="I23" s="27">
         <v>1420</v>
@@ -11749,13 +11944,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="H24" s="27" t="s">
         <v>227</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>228</v>
       </c>
       <c r="I24" s="27">
         <v>1421</v>
@@ -11766,13 +11961,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="H25" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>231</v>
       </c>
       <c r="I25" s="27">
         <v>1422</v>
@@ -11827,13 +12022,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -11842,7 +12037,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -11856,17 +12051,17 @@
         <v>6</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I2" s="23">
         <v>1334</v>
@@ -11896,17 +12091,17 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>335</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>336</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I4" s="27">
         <v>3027</v>
@@ -11917,26 +12112,26 @@
       <c r="A5" s="44"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>339</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>340</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I5" s="27">
         <v>3361</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -11946,15 +12141,15 @@
         <v>7</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I6" s="27">
         <v>3026</v>
@@ -11966,23 +12161,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -11992,11 +12187,11 @@
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="27"/>
@@ -12007,16 +12202,16 @@
       <c r="A9" s="44"/>
       <c r="B9" s="27"/>
       <c r="C9" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="81" t="s">
         <v>349</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="E9" s="82" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>350</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>451</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>351</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="81"/>
@@ -12028,7 +12223,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -12036,7 +12231,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="23">
         <v>1297</v>
@@ -12050,17 +12245,17 @@
         <v>6</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="27">
         <v>1883</v>
@@ -12074,17 +12269,17 @@
         <v>7</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="27">
         <v>1880</v>
@@ -12098,11 +12293,11 @@
         <v>0</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="27"/>
@@ -12114,7 +12309,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -12122,7 +12317,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="23">
         <v>1398</v>
@@ -12136,17 +12331,17 @@
         <v>9</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>355</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>356</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="27">
         <v>1387</v>
@@ -12160,17 +12355,17 @@
         <v>5</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="27">
         <v>1354</v>
@@ -12182,7 +12377,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -12190,7 +12385,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="23">
         <v>1840</v>
@@ -12204,13 +12399,13 @@
         <v>10</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I18" s="27">
         <v>1331</v>
@@ -12224,13 +12419,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I19" s="27">
         <v>1293</v>
@@ -12241,16 +12436,16 @@
       <c r="A20" s="44"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I20" s="27">
         <v>1265</v>
@@ -12264,13 +12459,13 @@
         <v>12</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I21" s="27">
         <v>1226</v>
@@ -12284,13 +12479,13 @@
         <v>13</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I22" s="27">
         <v>1326</v>
@@ -12304,13 +12499,13 @@
         <v>14</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I23" s="27">
         <v>1412</v>
@@ -12324,11 +12519,11 @@
         <v>0</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="27"/>
@@ -12340,25 +12535,25 @@
         <v>7</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="E25" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="E25" s="55" t="s">
-        <v>360</v>
-      </c>
       <c r="F25" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G25" s="55"/>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
       <c r="J25" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -12368,13 +12563,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="E26" s="48" t="s">
-        <v>362</v>
-      </c>
       <c r="F26" s="48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="30"/>
@@ -12385,16 +12580,16 @@
       <c r="A27" s="56"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>364</v>
-      </c>
       <c r="F27" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="30"/>
@@ -12408,13 +12603,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>366</v>
-      </c>
       <c r="F28" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G28" s="48"/>
       <c r="H28" s="30"/>
@@ -12425,16 +12620,16 @@
       <c r="A29" s="56"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>368</v>
-      </c>
       <c r="F29" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G29" s="48"/>
       <c r="H29" s="30"/>
@@ -12448,11 +12643,11 @@
         <v>6</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G30" s="48"/>
       <c r="H30" s="30"/>
@@ -12466,11 +12661,11 @@
         <v>15</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G31" s="48"/>
       <c r="H31" s="30"/>
@@ -12479,7 +12674,7 @@
     </row>
     <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -12527,13 +12722,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -12542,7 +12737,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -12556,15 +12751,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I2" s="23">
         <v>1370</v>
@@ -12578,7 +12773,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -12589,10 +12784,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>237</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>238</v>
       </c>
       <c r="I4" s="27">
         <v>1463</v>
@@ -12600,13 +12795,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>239</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>240</v>
       </c>
       <c r="I5" s="27">
         <v>3014</v>
@@ -12617,10 +12812,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>241</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>242</v>
       </c>
       <c r="I6" s="27">
         <v>1359</v>
@@ -12628,13 +12823,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>244</v>
       </c>
       <c r="I7" s="27">
         <v>1270</v>
@@ -12642,13 +12837,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>245</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>246</v>
       </c>
       <c r="I8" s="27">
         <v>1309</v>
@@ -12656,13 +12851,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>248</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>249</v>
       </c>
       <c r="I9" s="27">
         <v>1321</v>
@@ -12673,10 +12868,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I10" s="27">
         <v>1380</v>
@@ -12687,10 +12882,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>251</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>252</v>
       </c>
       <c r="I11" s="27">
         <v>3006</v>
@@ -12701,13 +12896,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I12" s="23">
         <v>1328</v>
@@ -12718,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13" s="27">
         <v>1288</v>
@@ -12729,7 +12924,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I14" s="27">
         <v>1384</v>
@@ -12740,10 +12935,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I15" s="27">
         <v>1402</v>
@@ -12754,13 +12949,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>266</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -12768,13 +12963,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="23">
         <v>1297</v>
@@ -12786,15 +12981,15 @@
         <v>6</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="50">
         <v>1883</v>
@@ -12806,15 +13001,15 @@
         <v>7</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="50">
         <v>1880</v>
@@ -12826,13 +13021,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="51"/>
     </row>
@@ -12841,13 +13036,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="23">
         <v>1398</v>
@@ -12858,10 +13053,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="I22" s="27">
         <v>1387</v>
@@ -12872,13 +13067,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>46</v>
       </c>
       <c r="I23" s="27">
         <v>1354</v>
@@ -12889,10 +13084,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -12900,13 +13095,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I25" s="23">
         <v>1840</v>
@@ -12917,10 +13112,10 @@
         <v>10</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I26" s="27">
         <v>1331</v>
@@ -12931,12 +13126,12 @@
         <v>11</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I27" s="27">
         <v>1293</v>
@@ -12944,13 +13139,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I28" s="27">
         <v>1265</v>
@@ -12961,10 +13156,10 @@
         <v>12</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I29" s="27">
         <v>1226</v>
@@ -12975,10 +13170,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I30" s="27">
         <v>1326</v>
@@ -12989,13 +13184,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I31" s="23">
         <v>2313</v>
@@ -13006,10 +13201,10 @@
         <v>10</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I32" s="27">
         <v>1905</v>
@@ -13017,22 +13212,22 @@
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C33" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="27">
         <v>1904</v>
@@ -13043,19 +13238,19 @@
         <v>8</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="55" t="s">
         <v>260</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>261</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="54"/>
@@ -13069,13 +13264,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>263</v>
       </c>
       <c r="G35" s="48"/>
       <c r="H35" s="30"/>
@@ -13089,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
@@ -13147,13 +13342,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -13162,7 +13357,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -13176,13 +13371,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>275</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>276</v>
       </c>
       <c r="I2" s="23">
         <v>1232</v>
@@ -13193,7 +13388,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -13202,16 +13397,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>278</v>
-      </c>
       <c r="F4" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -13219,13 +13414,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I5" s="27">
         <v>1420</v>
@@ -13236,13 +13431,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I6" s="27">
         <v>1421</v>
@@ -13253,13 +13448,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I7" s="27">
         <v>1422</v>
@@ -13270,13 +13465,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>529</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -13284,21 +13479,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>279</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>281</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -13306,10 +13501,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>283</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -13317,21 +13512,21 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>285</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -13339,10 +13534,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -13391,13 +13586,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -13406,7 +13601,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -13420,15 +13615,15 @@
         <v>9</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="23">
         <v>1366</v>
@@ -13439,13 +13634,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="23">
         <v>2183</v>
@@ -13456,13 +13651,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>294</v>
-      </c>
       <c r="H4" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="27">
         <v>1366</v>
@@ -13470,16 +13665,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>296</v>
-      </c>
       <c r="H5" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="27">
         <v>1360</v>
@@ -13490,13 +13685,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="23">
         <v>1398</v>
@@ -13507,16 +13702,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="I7" s="27">
         <v>1387</v>
@@ -13527,16 +13722,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>46</v>
       </c>
       <c r="I8" s="27">
         <v>1354</v>
@@ -13547,13 +13742,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -13561,19 +13756,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I10" s="23">
         <v>3193</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -13581,27 +13776,27 @@
         <v>11</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -13609,10 +13804,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -13620,13 +13815,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -13634,7 +13829,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
@@ -13642,14 +13837,14 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>79</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G16" s="59"/>
     </row>
@@ -13660,11 +13855,11 @@
         <v>10</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="59"/>
       <c r="F17" s="59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="773">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -762,9 +762,6 @@
     <t>qualifierAdjective</t>
   </si>
   <si>
-    <t>pēdējais</t>
-  </si>
-  <si>
     <t>nominative</t>
   </si>
   <si>
@@ -795,13 +792,7 @@
     <t>positive</t>
   </si>
   <si>
-    <t>labāks</t>
-  </si>
-  <si>
     <t>comparative</t>
-  </si>
-  <si>
-    <t>vislabākais, labākais</t>
   </si>
   <si>
     <t>superlative</t>
@@ -1539,18 +1530,6 @@
     <t>mazgāšanās, vēlējumies</t>
   </si>
   <si>
-    <t>sieviešu dzimtē</t>
-  </si>
-  <si>
-    <t>vīriešu dzimtē</t>
-  </si>
-  <si>
-    <t>ja nenoteiktās formas nav, lieto noteikto (pēdējais)</t>
-  </si>
-  <si>
-    <t>nelokāmiem vienīgā forma; lokāmiem vsk. nominatīvs</t>
-  </si>
-  <si>
     <t>vīriešu dzimte</t>
   </si>
   <si>
@@ -1745,9 +1724,6 @@
     <t>māja, miljons, trešdaļa, vecāks (vecāki - tēvs un mamma)</t>
   </si>
   <si>
-    <t>labais, [klases] vecākais</t>
-  </si>
-  <si>
     <t>daudzstāvu, arī milzu, papildu, pagaidu, piespiedu</t>
   </si>
   <si>
@@ -5027,9 +5003,6 @@
     <t>tu, jūs</t>
   </si>
   <si>
-    <t>viņš, viņas</t>
-  </si>
-  <si>
     <t>tāds</t>
   </si>
   <si>
@@ -5242,6 +5215,42 @@
   </si>
   <si>
     <t>ik, vien, ne, nē, jā</t>
+  </si>
+  <si>
+    <t>viņš, viņas, tas</t>
+  </si>
+  <si>
+    <t>vsk. nominatīvs vīriešu dzimtē, pamata pakāpe, nenoteiktā galotne, izņemot uzvādus - tiem saglabā lielo sākumburtu, kā arī to dzimti, pakāpi un noteiktību, kas ir uzvārdā</t>
+  </si>
+  <si>
+    <t>nelokāmiem vienīgā forma; lokāmiem vsk. nominatīvs vīriešu dzimtē, izņemot uzvādus - tiem saglabā lielo sākumburtu, to dzimti, pakāpi un noteiktību, kas ir uzvārdā</t>
+  </si>
+  <si>
+    <t>labāks, labākais</t>
+  </si>
+  <si>
+    <t>vislabākais</t>
+  </si>
+  <si>
+    <t>ja nenoteiktās formas nav, lieto noteikto (pēdējais, pārējais, galvenais?)</t>
+  </si>
+  <si>
+    <t>kas, kurš, kura, kāds, kāda</t>
+  </si>
+  <si>
+    <t>kas, kurš, kāds, dažs, cits, [kaut/diez(in)/nez(in)] kas,  [kaut/diez(in)/nez(in)] kāds, jebkas, jebkurš, jebkāds, neviens</t>
+  </si>
+  <si>
+    <t>pēdējais, tavējs, savējais</t>
+  </si>
+  <si>
+    <t>vienīgajam -&gt; vienīgs, savējie -&gt; savējs</t>
+  </si>
+  <si>
+    <t>labs, manējam, pēdējam</t>
+  </si>
+  <si>
+    <t>labais, manējo, pēdējo, [klases] vecākais</t>
   </si>
 </sst>
 </file>
@@ -6424,12 +6433,12 @@
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -6438,7 +6447,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -6453,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6474,7 +6483,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="23"/>
@@ -6487,10 +6496,10 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -6502,10 +6511,10 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -6549,34 +6558,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -6593,24 +6602,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K2" s="31">
         <v>1260</v>
@@ -6625,7 +6634,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -6642,16 +6651,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K4" s="39">
         <v>1262</v>
@@ -6665,18 +6674,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="78" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K5" s="78">
         <v>1393</v>
@@ -6731,34 +6740,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -6775,26 +6784,26 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="31">
         <v>1318</v>
@@ -6848,34 +6857,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -6892,26 +6901,26 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K2" s="31">
         <v>1342</v>
@@ -6965,19 +6974,19 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>13</v>
@@ -6986,13 +6995,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7009,30 +7018,30 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="31"/>
       <c r="I2" s="25" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K2" s="31">
         <v>1372</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7043,7 +7052,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -7062,16 +7071,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K4" s="39">
         <v>1448</v>
@@ -7079,22 +7088,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K5" s="39">
         <v>2081</v>
@@ -7105,45 +7114,45 @@
         <v>8</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K6" s="39">
         <v>2790</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7151,16 +7160,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K8" s="39">
         <v>2077</v>
@@ -7171,16 +7180,16 @@
         <v>68</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K9" s="39">
         <v>1439</v>
@@ -7194,16 +7203,16 @@
         <v>61</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I10" s="76"/>
       <c r="J10" s="78"/>
@@ -7257,34 +7266,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7301,28 +7310,28 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K2" s="31">
         <v>1382</v>
@@ -7337,22 +7346,22 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="148" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="149" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G3" s="149" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H3" s="148" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I3" s="149"/>
       <c r="J3" s="150"/>
@@ -7367,16 +7376,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H4" s="139" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="140"/>
@@ -7391,14 +7400,14 @@
         <v>11</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="139" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="140"/>
@@ -7413,14 +7422,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="139" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="140"/>
@@ -7435,14 +7444,14 @@
         <v>14</v>
       </c>
       <c r="E7" s="143" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G7" s="143"/>
       <c r="H7" s="145" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I7" s="143"/>
       <c r="J7" s="145"/>
@@ -7457,14 +7466,14 @@
         <v>34</v>
       </c>
       <c r="E8" s="156" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F8" s="157" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G8" s="153"/>
       <c r="H8" s="155" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I8" s="153"/>
       <c r="J8" s="155"/>
@@ -7519,34 +7528,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7563,26 +7572,26 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="25" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K2" s="31">
         <v>1382</v>
@@ -7597,22 +7606,22 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="59"/>
@@ -7624,16 +7633,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7641,16 +7650,16 @@
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7658,16 +7667,16 @@
         <v>138</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H6" s="124" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I6" s="122"/>
     </row>
@@ -7679,14 +7688,14 @@
         <v>61</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G7" s="80"/>
       <c r="H7" s="78" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I7" s="76"/>
       <c r="J7" s="78"/>
@@ -7739,7 +7748,7 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
@@ -7794,7 +7803,7 @@
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B4" s="180"/>
       <c r="C4" s="121"/>
@@ -24182,7 +24191,7 @@
     </row>
     <row r="5" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="159" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
@@ -24199,37 +24208,37 @@
     </row>
     <row r="6" spans="1:16384" s="160" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="162" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B6" s="134" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C6" s="163" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="164" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H6" s="73" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>16</v>
@@ -24240,7 +24249,7 @@
     </row>
     <row r="7" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B7" s="30">
         <v>3</v>
@@ -24249,7 +24258,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>7</v>
@@ -24258,10 +24267,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>27</v>
@@ -24285,7 +24294,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E8" s="59" t="s">
         <v>8</v>
@@ -24294,10 +24303,10 @@
         <v>45</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I8" s="63" t="s">
         <v>46</v>
@@ -24325,7 +24334,7 @@
     </row>
     <row r="10" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B10" s="58">
         <v>2</v>
@@ -24334,7 +24343,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E10" s="59" t="s">
         <v>10</v>
@@ -24344,7 +24353,7 @@
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="62" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="I10" s="63" t="s">
         <v>67</v>
@@ -24372,7 +24381,7 @@
     </row>
     <row r="12" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B12" s="58">
         <v>2</v>
@@ -24381,7 +24390,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E12" s="59" t="s">
         <v>10</v>
@@ -24420,7 +24429,7 @@
     </row>
     <row r="14" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B14" s="58">
         <v>7</v>
@@ -24429,20 +24438,20 @@
         <v>117</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="62" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
@@ -24458,14 +24467,14 @@
         <v>4</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="42" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J15" s="42"/>
       <c r="K15" s="39"/>
@@ -24479,14 +24488,14 @@
         <v>34</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="42" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J16" s="42"/>
       <c r="K16" s="39"/>
@@ -24500,14 +24509,14 @@
         <v>8</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="42" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J17" s="42"/>
       <c r="K17" s="39"/>
@@ -24521,14 +24530,14 @@
         <v>78</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J18" s="42"/>
       <c r="K18" s="39"/>
@@ -24542,12 +24551,12 @@
         <v>5</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G19" s="46"/>
       <c r="H19" s="42"/>
       <c r="I19" s="43" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J19" s="42"/>
       <c r="K19" s="39"/>
@@ -24561,12 +24570,12 @@
         <v>14</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="42"/>
       <c r="I20" s="43" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="39"/>
@@ -24589,27 +24598,27 @@
     </row>
     <row r="22" spans="1:13" s="161" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B22" s="165">
         <v>8</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D22" s="167"/>
       <c r="E22" s="168" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="169" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G22" s="170"/>
       <c r="H22" s="171" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I22" s="172" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J22" s="169"/>
       <c r="K22" s="168"/>
@@ -24623,13 +24632,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="39"/>
@@ -24667,13 +24676,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B26" s="58">
         <v>5</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D26" s="87"/>
       <c r="E26" s="59"/>
@@ -24692,13 +24701,13 @@
         <v>59</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="39"/>
@@ -24709,13 +24718,13 @@
         <v>9</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="39"/>
@@ -24736,22 +24745,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B30" s="58">
         <v>3</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="60"/>
       <c r="G30" s="87"/>
       <c r="H30" s="60" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I30" s="59"/>
       <c r="J30" s="60"/>
@@ -24766,14 +24775,14 @@
         <v>8</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="39"/>
@@ -24789,14 +24798,14 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="39"/>
@@ -24810,16 +24819,16 @@
         <v>34</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="H33" s="125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J33" s="42"/>
       <c r="K33" s="39"/>
@@ -24833,14 +24842,14 @@
         <v>14</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J34" s="42"/>
       <c r="K34" s="39"/>
@@ -24863,16 +24872,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B36" s="58">
         <v>2</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E36" s="59"/>
       <c r="F36" s="60"/>
@@ -24893,14 +24902,14 @@
         <v>8</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H37" s="40"/>
       <c r="I37" s="39" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J37" s="40"/>
       <c r="K37" s="39"/>
@@ -24913,14 +24922,14 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="43" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="39"/>
@@ -24943,16 +24952,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B40" s="58">
         <v>2</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E40" s="59"/>
       <c r="F40" s="60"/>
@@ -24973,13 +24982,13 @@
         <v>8</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
@@ -24992,13 +25001,13 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
@@ -25021,7 +25030,7 @@
     </row>
     <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B44" s="58">
         <v>2</v>
@@ -25030,19 +25039,19 @@
         <v>18</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E44" s="174" t="s">
         <v>78</v>
       </c>
       <c r="F44" s="175" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G44" s="176" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="H44" s="177" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="I44" s="178"/>
       <c r="J44" s="179"/>
@@ -25083,34 +25092,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="67" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -25127,23 +25136,23 @@
         <v>17</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
@@ -25157,7 +25166,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -25176,19 +25185,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>20</v>
@@ -25206,17 +25215,17 @@
         <v>4</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>21</v>
@@ -25234,7 +25243,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
@@ -25257,16 +25266,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="39" t="s">
@@ -25284,10 +25293,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="43" t="s">
@@ -25313,13 +25322,13 @@
         <v>49</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="78"/>
@@ -25334,7 +25343,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -25357,14 +25366,14 @@
         <v>8</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="43" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="39" t="s">
@@ -25382,14 +25391,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="43" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="39" t="s">
@@ -25407,16 +25416,16 @@
         <v>13</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="39"/>
@@ -25432,19 +25441,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
@@ -25464,10 +25473,10 @@
       </c>
       <c r="F15" s="83"/>
       <c r="G15" s="80" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="78"/>
@@ -25482,7 +25491,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="60"/>
@@ -25505,10 +25514,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="43" t="s">
@@ -25530,14 +25539,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="43" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="39" t="s">
@@ -25555,14 +25564,14 @@
         <v>34</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="43" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="39" t="s">
@@ -25580,14 +25589,14 @@
         <v>11</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
@@ -25605,14 +25614,14 @@
         <v>12</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="43" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="39" t="s">
@@ -25630,14 +25639,14 @@
         <v>13</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="43" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="39" t="s">
@@ -25659,13 +25668,13 @@
         <v>49</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G23" s="80" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I23" s="80"/>
       <c r="J23" s="78"/>
@@ -25680,7 +25689,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
@@ -25703,13 +25712,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="39"/>
@@ -25723,13 +25732,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="39"/>
@@ -25743,13 +25752,13 @@
         <v>3</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="39"/>
@@ -25763,10 +25772,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>60</v>
@@ -25783,13 +25792,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="39"/>
@@ -25803,13 +25812,13 @@
         <v>6</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="39"/>
@@ -25826,10 +25835,10 @@
         <v>49</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H31" s="43" t="s">
         <v>50</v>
@@ -25849,17 +25858,17 @@
         <v>10</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G32" s="42"/>
       <c r="H32" s="43" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
@@ -25875,14 +25884,14 @@
         <v>14</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="81" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I33" s="80"/>
       <c r="J33" s="78"/>
@@ -25939,34 +25948,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -25983,16 +25992,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
@@ -26015,7 +26024,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -26034,10 +26043,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>63</v>
@@ -26054,10 +26063,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>69</v>
@@ -26077,10 +26086,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>69</v>
@@ -26097,10 +26106,10 @@
         <v>73</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>69</v>
@@ -26120,7 +26129,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>76</v>
@@ -26143,16 +26152,16 @@
         <v>78</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="78" t="s">
@@ -26173,7 +26182,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -26192,10 +26201,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>81</v>
@@ -26212,10 +26221,10 @@
         <v>59</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>83</v>
@@ -26238,10 +26247,10 @@
         <v>49</v>
       </c>
       <c r="F13" s="104" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
@@ -26257,7 +26266,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
@@ -26280,10 +26289,10 @@
         <v>88</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>89</v>
@@ -26300,10 +26309,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>91</v>
@@ -26317,10 +26326,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>92</v>
@@ -26337,10 +26346,10 @@
         <v>34</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>94</v>
@@ -26354,10 +26363,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>95</v>
@@ -26377,7 +26386,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>97</v>
@@ -26396,10 +26405,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>131</v>
@@ -26424,7 +26433,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="60"/>
@@ -26445,13 +26454,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>103</v>
@@ -26465,13 +26474,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>104</v>
@@ -26485,13 +26494,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="J25" s="39" t="s">
         <v>105</v>
@@ -26511,7 +26520,7 @@
         <v>49</v>
       </c>
       <c r="F26" s="106" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G26" s="80" t="s">
         <v>129</v>
@@ -26532,7 +26541,7 @@
         <v>108</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="60"/>
@@ -26549,10 +26558,10 @@
         <v>78</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>109</v>
@@ -26566,10 +26575,10 @@
         <v>88</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>110</v>
@@ -26589,10 +26598,10 @@
         <v>49</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="G30" s="80" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H30" s="81"/>
       <c r="I30" s="80"/>
@@ -26608,7 +26617,7 @@
         <v>111</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="60"/>
@@ -26629,13 +26638,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -26643,13 +26652,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -26657,13 +26666,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -26671,10 +26680,10 @@
         <v>88</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="H35" s="95" t="s">
         <v>112</v>
@@ -26695,10 +26704,10 @@
         <v>49</v>
       </c>
       <c r="F36" s="77" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H36" s="81"/>
       <c r="I36" s="80"/>
@@ -26714,7 +26723,7 @@
         <v>113</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="60"/>
@@ -26735,13 +26744,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -26749,13 +26758,13 @@
         <v>2</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -26763,13 +26772,13 @@
         <v>3</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -26783,7 +26792,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G41" s="80"/>
       <c r="H41" s="81" t="s">
@@ -26802,7 +26811,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="60"/>
@@ -26823,13 +26832,13 @@
         <v>8</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="J43" s="39" t="s">
         <v>32</v>
@@ -26843,13 +26852,13 @@
         <v>4</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>33</v>
@@ -26869,10 +26878,10 @@
         <v>49</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H45" s="81" t="s">
         <v>116</v>
@@ -26890,7 +26899,7 @@
         <v>117</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="60"/>
@@ -26911,10 +26920,10 @@
         <v>11</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="J47" s="39" t="s">
         <v>119</v>
@@ -26928,13 +26937,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>120</v>
@@ -26954,7 +26963,7 @@
         <v>49</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G49" s="80" t="s">
         <v>106</v>
@@ -26973,7 +26982,7 @@
         <v>121</v>
       </c>
       <c r="C50" s="65" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="60"/>
@@ -26996,10 +27005,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H51" s="43" t="s">
         <v>89</v>
@@ -27019,10 +27028,10 @@
         <v>59</v>
       </c>
       <c r="E52" s="76" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F52" s="79" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G52" s="80"/>
       <c r="H52" s="81" t="s">
@@ -27084,34 +27093,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -27128,16 +27137,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
@@ -27160,7 +27169,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -27179,10 +27188,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>63</v>
@@ -27199,10 +27208,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>69</v>
@@ -27222,10 +27231,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>69</v>
@@ -27242,10 +27251,10 @@
         <v>73</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>69</v>
@@ -27265,7 +27274,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>76</v>
@@ -27288,10 +27297,10 @@
         <v>78</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G9" s="80" t="s">
         <v>128</v>
@@ -27318,7 +27327,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -27337,10 +27346,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>81</v>
@@ -27357,10 +27366,10 @@
         <v>59</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>83</v>
@@ -27383,10 +27392,10 @@
         <v>49</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
@@ -27402,7 +27411,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
@@ -27425,10 +27434,10 @@
         <v>88</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>130</v>
@@ -27448,10 +27457,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F16" s="93" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>130</v>
@@ -27468,10 +27477,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>130</v>
@@ -27491,10 +27500,10 @@
         <v>34</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>130</v>
@@ -27511,10 +27520,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F19" s="94" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>130</v>
@@ -27537,7 +27546,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G20" s="42" t="s">
         <v>130</v>
@@ -27560,10 +27569,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="81" t="s">
@@ -27586,7 +27595,7 @@
         <v>132</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="86"/>
@@ -27609,10 +27618,10 @@
         <v>34</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>134</v>
@@ -27634,10 +27643,10 @@
         <v>4</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F24" s="108" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G24" s="53" t="s">
         <v>136</v>
@@ -27660,10 +27669,10 @@
         <v>138</v>
       </c>
       <c r="E25" s="112" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="F25" s="114" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G25" s="115" t="s">
         <v>139</v>
@@ -27686,7 +27695,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D26" s="59"/>
       <c r="E26" s="86"/>
@@ -27709,10 +27718,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F27" s="108" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G27" s="53"/>
       <c r="H27" s="56" t="s">
@@ -27734,10 +27743,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F28" s="108" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G28" s="53"/>
       <c r="H28" s="56" t="s">
@@ -27763,10 +27772,10 @@
         <v>49</v>
       </c>
       <c r="F29" s="118" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G29" s="115" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H29" s="116" t="s">
         <v>140</v>
@@ -27784,7 +27793,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="86"/>
@@ -27807,10 +27816,10 @@
         <v>8</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="56" t="s">
@@ -27832,10 +27841,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F32" s="108" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G32" s="53"/>
       <c r="H32" s="56" t="s">
@@ -27861,10 +27870,10 @@
         <v>49</v>
       </c>
       <c r="F33" s="118" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G33" s="115" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H33" s="116" t="s">
         <v>140</v>
@@ -27882,7 +27891,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D34" s="59"/>
       <c r="E34" s="86"/>
@@ -27905,14 +27914,14 @@
         <v>9</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G35" s="53"/>
       <c r="H35" s="56" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="57" t="s">
@@ -27930,14 +27939,14 @@
         <v>10</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G36" s="53"/>
       <c r="H36" s="56" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="I36" s="53"/>
       <c r="J36" s="57" t="s">
@@ -27955,14 +27964,14 @@
         <v>34</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="56" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="57" t="s">
@@ -27980,14 +27989,14 @@
         <v>11</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="56" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="I38" s="53"/>
       <c r="J38" s="57" t="s">
@@ -28005,14 +28014,14 @@
         <v>12</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G39" s="53"/>
       <c r="H39" s="56" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="I39" s="53"/>
       <c r="J39" s="57" t="s">
@@ -28030,10 +28039,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="56"/>
@@ -28057,10 +28066,10 @@
         <v>49</v>
       </c>
       <c r="F41" s="118" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H41" s="116" t="s">
         <v>140</v>
@@ -28078,7 +28087,7 @@
         <v>117</v>
       </c>
       <c r="C42" s="111" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="86"/>
@@ -28101,16 +28110,16 @@
         <v>11</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G43" s="53" t="s">
         <v>145</v>
       </c>
       <c r="H43" s="56" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="I43" s="53"/>
       <c r="J43" s="57" t="s">
@@ -28128,16 +28137,16 @@
         <v>4</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G44" s="53" t="s">
         <v>146</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="I44" s="53"/>
       <c r="J44" s="57" t="s">
@@ -28159,13 +28168,13 @@
         <v>49</v>
       </c>
       <c r="F45" s="118" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G45" s="115" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H45" s="116" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I45" s="115"/>
       <c r="J45" s="117"/>
@@ -28180,7 +28189,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="86"/>
@@ -28203,16 +28212,16 @@
         <v>4</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G47" s="53" t="s">
         <v>147</v>
       </c>
       <c r="H47" s="56" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="I47" s="53"/>
       <c r="J47" s="57" t="s">
@@ -28230,16 +28239,16 @@
         <v>8</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G48" s="53" t="s">
         <v>148</v>
       </c>
       <c r="H48" s="56" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="I48" s="53"/>
       <c r="J48" s="57" t="s">
@@ -28261,13 +28270,13 @@
         <v>49</v>
       </c>
       <c r="F49" s="118" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G49" s="115" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H49" s="116" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I49" s="115"/>
       <c r="J49" s="117"/>
@@ -28282,7 +28291,7 @@
         <v>149</v>
       </c>
       <c r="C50" s="111" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="86"/>
@@ -28305,10 +28314,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G51" s="53"/>
       <c r="H51" s="56" t="s">
@@ -28330,10 +28339,10 @@
         <v>59</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G52" s="53"/>
       <c r="H52" s="56" t="s">
@@ -28359,13 +28368,13 @@
         <v>49</v>
       </c>
       <c r="F53" s="118" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G53" s="115" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H53" s="116" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I53" s="115"/>
       <c r="J53" s="78"/>
@@ -28377,10 +28386,10 @@
         <v>12</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="60"/>
@@ -28389,7 +28398,7 @@
       <c r="H54" s="63"/>
       <c r="I54" s="62"/>
       <c r="J54" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K54" s="59">
         <v>1419</v>
@@ -28404,20 +28413,20 @@
         <v>4</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K55" s="39">
         <v>1420</v>
@@ -28432,20 +28441,20 @@
         <v>3</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I56" s="42"/>
       <c r="J56" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K56" s="39">
         <v>1421</v>
@@ -28460,20 +28469,20 @@
         <v>8</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I57" s="42"/>
       <c r="J57" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K57" s="39">
         <v>1422</v>
@@ -28491,13 +28500,13 @@
         <v>49</v>
       </c>
       <c r="F58" s="118" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G58" s="80" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H58" s="81" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I58" s="80"/>
       <c r="J58" s="78"/>
@@ -28512,7 +28521,7 @@
         <v>121</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D59" s="59"/>
       <c r="E59" s="60"/>
@@ -28538,14 +28547,14 @@
         <v>9</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G60" s="42"/>
       <c r="H60" s="43" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I60" s="42"/>
       <c r="J60" s="39" t="s">
@@ -28564,14 +28573,14 @@
         <v>59</v>
       </c>
       <c r="E61" s="76" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F61" s="79" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G61" s="80"/>
       <c r="H61" s="81" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I61" s="80"/>
       <c r="J61" s="78" t="s">
@@ -28620,8 +28629,8 @@
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
@@ -28630,34 +28639,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -28666,7 +28675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -28674,21 +28683,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>363</v>
+        <v>762</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>155</v>
@@ -28706,7 +28715,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -28723,10 +28732,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>156</v>
@@ -28746,14 +28755,14 @@
         <v>14</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>158</v>
+        <v>769</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="78"/>
@@ -28770,16 +28779,16 @@
         <v>22</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
       <c r="F6" s="66"/>
       <c r="G6" s="62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="59" t="s">
@@ -28795,16 +28804,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>724</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>368</v>
+        <v>715</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>24</v>
@@ -28821,18 +28827,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="81" t="s">
-        <v>725</v>
-      </c>
-      <c r="I8" s="80" t="s">
-        <v>367</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="I8" s="80"/>
       <c r="J8" s="78" t="s">
         <v>25</v>
       </c>
@@ -28849,7 +28853,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
@@ -28870,13 +28874,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>32</v>
@@ -28893,14 +28897,14 @@
         <v>4</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="81" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="78" t="s">
@@ -28919,7 +28923,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -28940,16 +28944,16 @@
         <v>9</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K13" s="39">
         <v>1331</v>
@@ -28960,16 +28964,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" s="39">
         <v>1293</v>
@@ -28980,16 +28984,16 @@
         <v>34</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K15" s="39">
         <v>1265</v>
@@ -29000,16 +29004,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K16" s="39">
         <v>1226</v>
@@ -29020,16 +29024,16 @@
         <v>12</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K17" s="39">
         <v>1326</v>
@@ -29043,16 +29047,16 @@
         <v>13</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F18" s="79" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G18" s="80"/>
       <c r="H18" s="81"/>
       <c r="I18" s="80"/>
       <c r="J18" s="78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K18" s="78">
         <v>1412</v>
@@ -29067,7 +29071,7 @@
         <v>149</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="60"/>
@@ -29088,13 +29092,16 @@
         <v>9</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>156</v>
+        <v>771</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>770</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>152</v>
@@ -29111,17 +29118,17 @@
         <v>59</v>
       </c>
       <c r="E21" s="112" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F21" s="114" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="81" t="s">
-        <v>403</v>
+        <v>772</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>369</v>
+        <v>766</v>
       </c>
       <c r="J21" s="78" t="s">
         <v>154</v>
@@ -29136,10 +29143,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="60"/>
@@ -29148,7 +29155,7 @@
       <c r="H22" s="63"/>
       <c r="I22" s="62"/>
       <c r="J22" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22" s="59">
         <v>1419</v>
@@ -29160,19 +29167,19 @@
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H23" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="39" t="s">
         <v>167</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>168</v>
       </c>
       <c r="K23" s="39">
         <v>1420</v>
@@ -29183,16 +29190,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>169</v>
+        <v>764</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K24" s="39">
         <v>1421</v>
@@ -29206,18 +29213,18 @@
         <v>8</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G25" s="80"/>
       <c r="H25" s="81" t="s">
-        <v>171</v>
+        <v>765</v>
       </c>
       <c r="I25" s="80"/>
       <c r="J25" s="78" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K25" s="78">
         <v>1422</v>
@@ -29262,7 +29269,7 @@
     <col min="6" max="6" width="21.140625" style="123" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.140625" style="125" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" style="126" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" style="125" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" style="125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="124" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="124" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" style="122" bestFit="1" customWidth="1"/>
@@ -29271,34 +29278,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -29307,7 +29314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -29315,26 +29322,26 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>370</v>
+        <v>763</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K2" s="31">
         <v>1334</v>
@@ -29349,7 +29356,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -29369,20 +29376,20 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I4" s="42"/>
       <c r="J4" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K4" s="39">
         <v>3027</v>
@@ -29397,26 +29404,26 @@
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I5" s="42"/>
       <c r="J5" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K5" s="39">
         <v>3361</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -29427,18 +29434,18 @@
         <v>6</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G6" s="80"/>
       <c r="H6" s="81" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I6" s="80"/>
       <c r="J6" s="78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K6" s="78">
         <v>3026</v>
@@ -29450,10 +29457,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="60"/>
@@ -29475,14 +29482,14 @@
         <v>8</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="39"/>
@@ -29497,14 +29504,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="39"/>
@@ -29516,19 +29523,19 @@
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
       <c r="D10" s="99" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="G10" s="102" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I10" s="102"/>
       <c r="J10" s="99"/>
@@ -29543,7 +29550,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D11" s="59"/>
       <c r="E11" s="60"/>
@@ -29567,18 +29574,16 @@
         <v>5</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>368</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="I12" s="42"/>
       <c r="J12" s="39" t="s">
         <v>24</v>
       </c>
@@ -29595,18 +29600,16 @@
         <v>6</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>367</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="I13" s="42"/>
       <c r="J13" s="39" t="s">
         <v>25</v>
       </c>
@@ -29626,11 +29629,11 @@
         <v>49</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="81" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I14" s="80"/>
       <c r="J14" s="78"/>
@@ -29645,7 +29648,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="60"/>
@@ -29669,16 +29672,16 @@
         <v>8</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="39" t="s">
@@ -29697,17 +29700,17 @@
         <v>4</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G17" s="80"/>
       <c r="H17" s="81" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="J17" s="78" t="s">
         <v>33</v>
@@ -29725,7 +29728,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
@@ -29749,18 +29752,18 @@
         <v>9</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="43" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K19" s="39">
         <v>1331</v>
@@ -29775,18 +29778,18 @@
         <v>10</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" s="39">
         <v>1293</v>
@@ -29801,18 +29804,18 @@
         <v>34</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="43" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K21" s="39">
         <v>1265</v>
@@ -29827,18 +29830,18 @@
         <v>11</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="43" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K22" s="39">
         <v>1226</v>
@@ -29853,18 +29856,18 @@
         <v>12</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="43" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K23" s="39">
         <v>1326</v>
@@ -29879,16 +29882,16 @@
         <v>13</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="43"/>
       <c r="I24" s="42"/>
       <c r="J24" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K24" s="39">
         <v>1412</v>
@@ -29906,11 +29909,11 @@
         <v>49</v>
       </c>
       <c r="F25" s="77" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G25" s="80"/>
       <c r="H25" s="81" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I25" s="80"/>
       <c r="J25" s="78"/>
@@ -29919,7 +29922,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="128" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B26" s="129"/>
       <c r="C26" s="130"/>
@@ -29956,7 +29959,7 @@
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="43" customWidth="1"/>
+    <col min="8" max="8" width="46" style="43" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" style="42" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
@@ -29966,34 +29969,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -30010,24 +30013,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K2" s="31">
         <v>1370</v>
@@ -30042,13 +30045,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
       <c r="F3" s="66"/>
       <c r="G3" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="62"/>
@@ -30063,16 +30066,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K4" s="39">
         <v>1463</v>
@@ -30083,16 +30086,16 @@
         <v>61</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K5" s="39">
         <v>3014</v>
@@ -30103,53 +30106,56 @@
         <v>8</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K6" s="39">
         <v>1359</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K7" s="39">
         <v>1270</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D8" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>601</v>
+        <v>593</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>768</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K8" s="39">
         <v>1309</v>
@@ -30157,16 +30163,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>602</v>
+        <v>594</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>767</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K9" s="39">
         <v>1321</v>
@@ -30177,19 +30186,22 @@
         <v>14</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>496</v>
+        <v>488</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>767</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K10" s="39">
         <v>1380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
@@ -30197,18 +30209,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>152</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="81" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="78" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K11" s="78">
         <v>3006</v>
@@ -30223,7 +30235,7 @@
         <v>113</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -30244,16 +30256,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K13" s="39">
         <v>1288</v>
@@ -30264,16 +30276,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K14" s="39">
         <v>1384</v>
@@ -30284,19 +30296,19 @@
         <v>3</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K15" s="39">
         <v>1402</v>
@@ -30313,13 +30325,13 @@
         <v>49</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I16" s="80"/>
       <c r="J16" s="78"/>
@@ -30334,7 +30346,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="60"/>
@@ -30355,16 +30367,16 @@
         <v>5</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
@@ -30378,16 +30390,16 @@
         <v>6</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>25</v>
@@ -30407,13 +30419,13 @@
         <v>49</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G20" s="80" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H20" s="81" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I20" s="80"/>
       <c r="J20" s="78"/>
@@ -30428,7 +30440,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D21" s="59"/>
       <c r="E21" s="60"/>
@@ -30449,13 +30461,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>32</v>
@@ -30469,16 +30481,16 @@
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>33</v>
@@ -30498,11 +30510,11 @@
         <v>49</v>
       </c>
       <c r="F24" s="77" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G24" s="80"/>
       <c r="H24" s="81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I24" s="80"/>
       <c r="J24" s="78"/>
@@ -30517,7 +30529,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="60"/>
@@ -30538,16 +30550,16 @@
         <v>9</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K26" s="39">
         <v>1331</v>
@@ -30558,16 +30570,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" s="39">
         <v>1293</v>
@@ -30578,16 +30590,16 @@
         <v>34</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K28" s="39">
         <v>1265</v>
@@ -30598,16 +30610,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="J29" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K29" s="39">
         <v>1226</v>
@@ -30621,18 +30633,18 @@
         <v>12</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F30" s="79" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G30" s="80"/>
       <c r="H30" s="81" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="I30" s="80"/>
       <c r="J30" s="78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K30" s="78">
         <v>1326</v>
@@ -30647,7 +30659,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="60"/>
@@ -30668,13 +30680,13 @@
         <v>9</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>82</v>
@@ -30691,19 +30703,19 @@
         <v>59</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F33" s="79" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H33" s="81" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J33" s="78" t="s">
         <v>84</v>
@@ -30760,34 +30772,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -30804,24 +30816,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31"/>
       <c r="I2" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K2" s="31">
         <v>1232</v>
@@ -30833,10 +30845,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -30853,13 +30865,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>58</v>
@@ -30873,16 +30885,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="39">
         <v>1420</v>
@@ -30893,16 +30905,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K6" s="39">
         <v>1421</v>
@@ -30913,16 +30925,16 @@
         <v>8</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K7" s="39">
         <v>1422</v>
@@ -30939,13 +30951,13 @@
         <v>49</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I8" s="76"/>
       <c r="J8" s="78"/>
@@ -30957,10 +30969,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
@@ -30971,21 +30983,21 @@
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
       <c r="L9" s="60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -30993,13 +31005,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -31007,13 +31019,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -31021,13 +31033,13 @@
         <v>78</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -31038,14 +31050,14 @@
         <v>3</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G14" s="76"/>
       <c r="H14" s="78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I14" s="76"/>
       <c r="J14" s="78"/>
@@ -31099,34 +31111,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -31143,21 +31155,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>56</v>
@@ -31172,10 +31184,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -31196,13 +31208,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>56</v>
@@ -31219,14 +31231,14 @@
         <v>78</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F5" s="84" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="78" t="s">
@@ -31245,7 +31257,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
@@ -31266,16 +31278,16 @@
         <v>8</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>32</v>
@@ -31289,16 +31301,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>33</v>
@@ -31318,13 +31330,13 @@
         <v>49</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="78"/>
@@ -31336,10 +31348,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -31348,13 +31360,13 @@
       <c r="H10" s="63"/>
       <c r="I10" s="62"/>
       <c r="J10" s="59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K10" s="59">
         <v>3193</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -31365,13 +31377,13 @@
         <v>38</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -31382,13 +31394,13 @@
         <v>40</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -31396,13 +31408,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -31416,13 +31428,13 @@
         <v>49</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G14" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="81" t="s">
         <v>228</v>
-      </c>
-      <c r="H14" s="81" t="s">
-        <v>231</v>
       </c>
       <c r="I14" s="80"/>
       <c r="J14" s="78"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!LaumasDoc\Git\Treebank\Docs\Annotation how-to\Tags&amp;tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7550BD-CBD3-4827-9BAC-49A0C3A730CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F375D-0FFF-4676-AC19-DE555F616960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -5616,9 +5616,6 @@
     <t>sakrīt ar formu</t>
   </si>
   <si>
-    <t>15, 10 000 000, +371 29 787 121, XVII, MDCCCLXXXVIII</t>
-  </si>
-  <si>
     <t>normalizē uz ascii</t>
   </si>
   <si>
@@ -6852,6 +6849,9 @@
   </si>
   <si>
     <t>Apstākļa vārds</t>
+  </si>
+  <si>
+    <t>15, 10 000 000, +371 29 787 121, XVII, MDCCCLXXXVIII, 10.12.1999</t>
   </si>
 </sst>
 </file>
@@ -8129,18 +8129,18 @@
     </row>
     <row r="5" spans="2:4" ht="72.5">
       <c r="B5" s="182" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C5" s="184" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="183" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C6" s="177" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -8221,7 +8221,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8326,10 +8326,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="59" t="s">
+        <v>791</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>792</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>793</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="55"/>
@@ -8435,7 +8435,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8584,7 +8584,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8600,7 +8600,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8733,13 +8733,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G1" s="178"/>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G2" s="178"/>
     </row>
@@ -8894,7 +8894,7 @@
         <v>283</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>284</v>
@@ -8920,7 +8920,7 @@
         <v>287</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>294</v>
@@ -8946,7 +8946,7 @@
         <v>289</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>290</v>
@@ -9047,7 +9047,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9317,9 +9317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -9341,10 +9341,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9492,7 +9492,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="29">
+    <row r="7" spans="1:12" ht="43.5">
       <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>786</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>788</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9688,13 +9688,13 @@
     </row>
     <row r="8" spans="1:13" customFormat="1">
       <c r="A8" s="141" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B8" s="157"/>
     </row>
     <row r="9" spans="1:13" customFormat="1">
       <c r="A9" s="141" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B9" s="157"/>
     </row>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="51" spans="1:13" s="14" customFormat="1">
       <c r="A51" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B51" s="53">
         <v>3</v>
@@ -10750,10 +10750,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C1" s="178"/>
       <c r="D1" s="178"/>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="178"/>
@@ -11641,10 +11641,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="62"/>
       <c r="H2" s="178"/>
@@ -12841,10 +12841,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -12852,7 +12852,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
@@ -14417,10 +14417,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -14428,7 +14428,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
@@ -14656,10 +14656,10 @@
         <v>407</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="72"/>
@@ -14748,10 +14748,10 @@
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="74" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I15" s="74"/>
       <c r="J15" s="72"/>
@@ -14923,7 +14923,7 @@
         <v>313</v>
       </c>
       <c r="H23" s="75" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="72"/>
@@ -15150,10 +15150,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -15168,7 +15168,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -15829,7 +15829,7 @@
     <row r="28" spans="1:12">
       <c r="A28" s="116"/>
       <c r="B28" s="181" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="119"/>
@@ -15875,10 +15875,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -15893,7 +15893,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -16688,7 +16688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
@@ -16712,10 +16712,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -16923,10 +16923,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -16946,7 +16946,7 @@
         <v>464</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>196</v>
@@ -16969,11 +16969,11 @@
         <v>462</v>
       </c>
       <c r="F12" s="175" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G12" s="172"/>
       <c r="H12" s="174" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I12" s="172"/>
       <c r="J12" s="174"/>
@@ -17028,7 +17028,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -17044,7 +17044,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!LaumasDoc\Git\Treebank\Docs\Annotation how-to\Tags&amp;tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F375D-0FFF-4676-AC19-DE555F616960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A419C54-F607-4CD8-865D-1CAB3E33E998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -5677,165 +5677,6 @@
   </si>
   <si>
     <r>
-      <t>Lietvārda pamatforma parasti ir vsk. nominatīvs: ar mazo sākumburtu sugasvārdiem, ar lielo – īpašvārdiem. Izņēmumi: daudzskaitliniekam – dsk. nominatīvs (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bikses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), ģenitīvenim – ģenitīva forma (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vienstāva</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>augstpapēžu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). 4. un 5. deklinācijas kopdzimtes lietvārdi (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>paziņa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) atkarībā no konteksta marķēti kā vīriešu dzimtes (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>paziņam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) vai sieviešu dzimtes (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>paziņai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) lietvārdi. Nelokāmajiem lietvārdiem nepiemīt šādas gramatiskās kategorijas: skaitlis, locījums, deklinācija. Dzimte nelokāmajiem lietvārdiem tiek piemērota tikai tad, ja tā norādīta vārdnīcā tezaurs.lv (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kanoe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – siev. dz.). Atšķirībā no tradicionālās gramatikas morfoloģisko pazīmju kopā nav lietots instrumentālis, jo tas vienskaitlī sakrīt ar akuzatīvu, bet daudzskaitlī – ar datīvu.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Darbības vārda divdabja formas pamatforma ir darbības vārda nenoteiksme. Ja tekstā lietota noliegta darbības vārda divdabja forma (</t>
     </r>
     <r>
@@ -6852,6 +6693,165 @@
   </si>
   <si>
     <t>15, 10 000 000, +371 29 787 121, XVII, MDCCCLXXXVIII, 10.12.1999</t>
+  </si>
+  <si>
+    <r>
+      <t>Lietvārda pamatforma parasti ir vsk. nominatīvs: ar mazo sākumburtu sugasvārdiem, ar lielo – īpašvārdiem. Izņēmumi: daudzskaitliniekam – dsk. nominatīvs (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bikses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), ģenitīvenim – ģenitīva forma (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vienstāva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>augstpapēžu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). 4. un 5. deklinācijas kopdzimtes lietvārdi (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paziņa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) atkarībā no konteksta marķēti kā vīriešu dzimtes (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paziņam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) vai sieviešu dzimtes (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paziņai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) lietvārdi. Nelokāmajiem lietvārdiem nepiemīt šādas gramatiskās kategorijas: skaitlis, locījums, deklinācija. Dzimte nelokāmajiem lietvārdiem tiek piemērota tikai tad, ja tā norādīta vārdnīcā tezaurs.lv (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kanoe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – siev. dz.). Tēzaurā neesošiem nelokāmiem personvārdiem (Eno) dzimti marķē pēc personas dzimuma, ja tas ir zināms. Nelokāmiem uzņēmumu nosaukumiem (Volvo) dzimte nepiemīt. Atšķirībā no tradicionālās gramatikas morfoloģisko pazīmju kopā nav lietots instrumentālis, jo tas vienskaitlī sakrīt ar akuzatīvu, bet daudzskaitlī – ar datīvu.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8102,9 +8102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -8129,15 +8127,15 @@
     </row>
     <row r="5" spans="2:4" ht="72.5">
       <c r="B5" s="182" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C5" s="184" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="183" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C6" s="177" t="s">
         <v>799</v>
@@ -8162,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -8221,7 +8219,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8237,7 +8235,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8435,7 +8433,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8451,7 +8449,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8584,7 +8582,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8600,7 +8598,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8733,13 +8731,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G1" s="178"/>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G2" s="178"/>
     </row>
@@ -9047,7 +9045,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -9063,7 +9061,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9317,7 +9315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
@@ -9341,10 +9339,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -9359,7 +9357,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9506,7 +9504,7 @@
         <v>786</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9694,7 +9692,7 @@
     </row>
     <row r="9" spans="1:13" customFormat="1">
       <c r="A9" s="141" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B9" s="157"/>
     </row>
@@ -10573,7 +10571,7 @@
     </row>
     <row r="51" spans="1:13" s="14" customFormat="1">
       <c r="A51" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B51" s="53">
         <v>3</v>
@@ -10728,7 +10726,7 @@
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -10750,10 +10748,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="C1" s="178"/>
       <c r="D1" s="178"/>
@@ -10769,7 +10767,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="178"/>
@@ -11641,10 +11639,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -11652,7 +11650,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="62"/>
       <c r="H2" s="178"/>
@@ -12841,10 +12839,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -12852,7 +12850,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
@@ -14395,7 +14393,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -14417,10 +14415,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -14428,7 +14426,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
@@ -14656,10 +14654,10 @@
         <v>407</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="72"/>
@@ -14751,7 +14749,7 @@
         <v>790</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I15" s="74"/>
       <c r="J15" s="72"/>
@@ -14923,7 +14921,7 @@
         <v>313</v>
       </c>
       <c r="H23" s="75" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="72"/>
@@ -15150,10 +15148,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -15168,7 +15166,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -15829,7 +15827,7 @@
     <row r="28" spans="1:12">
       <c r="A28" s="116"/>
       <c r="B28" s="181" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="119"/>
@@ -15875,10 +15873,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -15893,7 +15891,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -16712,10 +16710,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -16730,7 +16728,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -17028,7 +17026,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -17044,7 +17042,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!LaumasDoc\Git\Treebank\Docs\Annotation how-to\Tags&amp;tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A419C54-F607-4CD8-865D-1CAB3E33E998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834A85C-24C4-4C4E-91A9-726134C83617}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Bezmorf. elem.|Residual" sheetId="18" r:id="rId15"/>
     <sheet name="Vēsture|History" sheetId="19" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="824">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -5601,9 +5601,6 @@
     <t>divi, trīs, četri, divarpus, četrtūkstoš</t>
   </si>
   <si>
-    <t>% $ 221B</t>
-  </si>
-  <si>
     <t>kārtas skaitlis cipariem</t>
   </si>
   <si>
@@ -6493,19 +6490,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">nelokāms īpašības vārds, ja saskaņojas ar nelokāmu lietvārdu kam tēzaurā.lv nav norādīta dzimte vai ģenitīveni </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>(piemērs cukīni gan ir ar dzimti tēzaurā)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Apstākļa vārda pamatforma ir apstākļa vārda vienīgā forma (</t>
     </r>
     <r>
@@ -6852,13 +6836,60 @@
       </rPr>
       <t xml:space="preserve"> – siev. dz.). Tēzaurā neesošiem nelokāmiem personvārdiem (Eno) dzimti marķē pēc personas dzimuma, ja tas ir zināms. Nelokāmiem uzņēmumu nosaukumiem (Volvo) dzimte nepiemīt. Atšķirībā no tradicionālās gramatikas morfoloģisko pazīmju kopā nav lietots instrumentālis, jo tas vienskaitlī sakrīt ar akuzatīvu, bet daudzskaitlī – ar datīvu.</t>
     </r>
+  </si>
+  <si>
+    <t>mini (lietojumā mini kakao)</t>
+  </si>
+  <si>
+    <t>nelokāms īpašības vārds, ja saskaņojas ar nelokāmu lietvārdu kam tēzaurā.lv nav norādīta dzimte vai ģenitīveni</t>
+  </si>
+  <si>
+    <t>2024-12-04 ievieš reziduāļa tipu d alfanumeriskiem apzīmējumiem</t>
+  </si>
+  <si>
+    <t>E100, U18, 221B</t>
+  </si>
+  <si>
+    <t>% $</t>
+  </si>
+  <si>
+    <t>Apzīmējumi, kas neideras ne saīsinājumu, ne nelokāmo lietvārdu tagos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">alphanumeric </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esignation</t>
+    </r>
+  </si>
+  <si>
+    <t>apzīmējums ar burtiem un cipariem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7056,11 +7087,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -7210,7 +7236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -7743,6 +7769,11 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7758,59 +7789,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17409" name="AutoShape 1" descr=":)">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001440000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3048000" y="7239000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8102,9 +8080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.36328125" style="2" customWidth="1"/>
@@ -8113,41 +8091,41 @@
     <col min="5" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="18.5">
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="18.5">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="20" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="72.5">
+    <row r="5" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="182" t="s">
+        <v>803</v>
+      </c>
+      <c r="C5" s="184" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="183" t="s">
         <v>804</v>
       </c>
-      <c r="C5" s="184" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="183" t="s">
-        <v>805</v>
-      </c>
       <c r="C6" s="177" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>720</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
@@ -8155,21 +8133,21 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>726</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>300</v>
       </c>
@@ -8177,7 +8155,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>300</v>
       </c>
@@ -8200,7 +8178,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.36328125" style="37" bestFit="1" customWidth="1"/>
@@ -8217,9 +8195,9 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8233,9 +8211,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8249,7 +8227,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8287,7 +8265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8319,15 +8297,15 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
       <c r="B5" s="59" t="s">
+        <v>790</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>791</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>792</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="55"/>
@@ -8339,7 +8317,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="43.5">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
@@ -8359,7 +8337,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -8385,7 +8363,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="53"/>
       <c r="B8" s="55"/>
       <c r="C8" s="61"/>
@@ -8414,7 +8392,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -8431,9 +8409,9 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8447,9 +8425,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8463,7 +8441,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8501,7 +8479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8535,7 +8513,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53"/>
       <c r="B5" s="55"/>
       <c r="C5" s="61"/>
@@ -8563,7 +8541,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -8580,9 +8558,9 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8596,9 +8574,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8612,7 +8590,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8650,7 +8628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8684,7 +8662,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53"/>
       <c r="B5" s="55"/>
       <c r="C5" s="61"/>
@@ -8712,7 +8690,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -8729,19 +8707,19 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1" s="178"/>
+    </row>
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="G1" s="178"/>
-    </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
-      <c r="A2" s="18" t="s">
-        <v>805</v>
-      </c>
       <c r="G2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8779,7 +8757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8813,7 +8791,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -8833,7 +8811,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
       <c r="D6" s="36" t="s">
@@ -8855,7 +8833,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>174</v>
       </c>
@@ -8878,7 +8856,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -8892,7 +8870,7 @@
         <v>283</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>284</v>
@@ -8904,7 +8882,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29">
+    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>286</v>
       </c>
@@ -8918,7 +8896,7 @@
         <v>287</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>294</v>
@@ -8930,7 +8908,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>34</v>
       </c>
@@ -8944,7 +8922,7 @@
         <v>289</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>290</v>
@@ -8953,7 +8931,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>68</v>
       </c>
@@ -8973,7 +8951,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.5">
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -8997,7 +8975,7 @@
       <c r="K12" s="72"/>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="53"/>
       <c r="B13" s="55"/>
       <c r="C13" s="61"/>
@@ -9026,7 +9004,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -9043,9 +9021,9 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -9059,9 +9037,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9075,7 +9053,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -9113,7 +9091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -9149,7 +9127,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" s="12" customFormat="1">
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -9179,7 +9157,7 @@
       <c r="K5" s="133"/>
       <c r="L5" s="134"/>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1">
+    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="37"/>
       <c r="C6" s="43"/>
@@ -9203,7 +9181,7 @@
       <c r="K6" s="126"/>
       <c r="L6" s="127"/>
     </row>
-    <row r="7" spans="1:12" s="12" customFormat="1">
+    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="37"/>
       <c r="C7" s="43"/>
@@ -9225,7 +9203,7 @@
       <c r="K7" s="126"/>
       <c r="L7" s="127"/>
     </row>
-    <row r="8" spans="1:12" s="12" customFormat="1">
+    <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="37"/>
       <c r="C8" s="43"/>
@@ -9247,7 +9225,7 @@
       <c r="K8" s="126"/>
       <c r="L8" s="127"/>
     </row>
-    <row r="9" spans="1:12" s="125" customFormat="1">
+    <row r="9" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="128"/>
       <c r="B9" s="129"/>
       <c r="C9" s="130"/>
@@ -9269,7 +9247,7 @@
       <c r="K9" s="131"/>
       <c r="L9" s="129"/>
     </row>
-    <row r="10" spans="1:12" s="125" customFormat="1">
+    <row r="10" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="135"/>
       <c r="B10" s="136"/>
       <c r="C10" s="137"/>
@@ -9291,7 +9269,7 @@
       <c r="K10" s="138"/>
       <c r="L10" s="136"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="53"/>
       <c r="B11" s="55"/>
       <c r="C11" s="61"/>
@@ -9313,14 +9291,14 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -9337,12 +9315,12 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -9355,9 +9333,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9371,7 +9349,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -9409,7 +9387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -9433,7 +9411,7 @@
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>302</v>
@@ -9443,7 +9421,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="29">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -9473,12 +9451,12 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>555</v>
@@ -9490,93 +9468,116 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>665</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="D8" s="36" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="192" t="s">
+        <v>823</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>822</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>821</v>
+      </c>
+      <c r="H8" s="190" t="s">
+        <v>819</v>
+      </c>
+      <c r="I8" s="191"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="70"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D9" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E9" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F9" s="38" t="s">
         <v>666</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G9" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H9" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="I8" s="110"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72" t="s">
+      <c r="I9" s="110"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E10" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F10" s="71" t="s">
         <v>634</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="72" t="s">
-        <v>783</v>
-      </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="70"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="72" t="s">
+        <v>820</v>
+      </c>
+      <c r="I10" s="70"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="70"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="18" customWidth="1"/>
     <col min="2" max="2" width="2" style="35" bestFit="1" customWidth="1"/>
@@ -9594,7 +9595,7 @@
     <col min="14" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>729</v>
       </c>
@@ -9611,7 +9612,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9630,7 +9631,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9649,13 +9650,13 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1">
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>722</v>
       </c>
       <c r="B4" s="157"/>
     </row>
-    <row r="5" spans="1:13" ht="18.5">
+    <row r="5" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A5" s="142" t="s">
         <v>761</v>
       </c>
@@ -9672,1047 +9673,1053 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" customFormat="1">
+    <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>762</v>
       </c>
       <c r="B6" s="157"/>
     </row>
-    <row r="7" spans="1:13" customFormat="1">
+    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>779</v>
       </c>
       <c r="B7" s="157"/>
     </row>
-    <row r="8" spans="1:13" customFormat="1">
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="141" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B8" s="157"/>
     </row>
-    <row r="9" spans="1:13" customFormat="1">
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="141" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B9" s="157"/>
     </row>
-    <row r="10" spans="1:13" customFormat="1">
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="141" t="s">
+        <v>818</v>
+      </c>
       <c r="B10" s="157"/>
     </row>
-    <row r="11" spans="1:13" ht="18.5">
-      <c r="A11" s="142" t="s">
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="157"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="142" t="s">
         <v>668</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" s="143" customFormat="1" ht="29">
-      <c r="A12" s="145" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" s="143" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="145" t="s">
         <v>405</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B13" s="122" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C13" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D13" s="147" t="s">
         <v>395</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E13" s="66" t="s">
         <v>730</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F13" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G13" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H13" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I13" s="68" t="s">
         <v>727</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J13" s="67" t="s">
         <v>347</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K13" s="68" t="s">
         <v>731</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M13" s="64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="29">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B14" s="27">
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="159" t="s">
+      <c r="F14" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="28" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L14" s="28">
         <v>1558</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M14" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="53">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="53">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D15" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F15" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G15" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H15" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I15" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55" t="s">
+      <c r="J15" s="57"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="69"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="102"/>
-    </row>
-    <row r="16" spans="1:13" ht="43.5">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="69"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="102"/>
+    </row>
+    <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B17" s="53">
         <v>2</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C17" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D17" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F17" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="57" t="s">
+      <c r="G17" s="61"/>
+      <c r="H17" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I17" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="78" t="s">
+      <c r="J17" s="57"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="B17" s="69"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="102"/>
-    </row>
-    <row r="18" spans="1:14" ht="29">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="69"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="102"/>
+    </row>
+    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B19" s="53">
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D19" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E19" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F19" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="57" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I19" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="78" t="s">
+      <c r="J19" s="57"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="B19" s="69"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="102"/>
-    </row>
-    <row r="20" spans="1:14" ht="43.5">
-      <c r="A20" s="14" t="s">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="69"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="102"/>
+    </row>
+    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B21" s="53">
         <v>7</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C21" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D21" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E21" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F21" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="57" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="58" t="s">
+      <c r="I21" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="78" t="s">
+      <c r="J21" s="57"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="43.5">
-      <c r="C21" s="37"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:14" ht="29">
+    <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C22" s="37"/>
       <c r="D22" s="43"/>
       <c r="E22" s="36" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J22" s="39"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:14" ht="29">
+    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C23" s="37"/>
       <c r="D23" s="43"/>
       <c r="E23" s="36" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:14" ht="29">
+    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C24" s="37"/>
       <c r="D24" s="43"/>
       <c r="E24" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>262</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J24" s="39"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C25" s="37"/>
       <c r="D25" s="43"/>
       <c r="E25" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>264</v>
+        <v>78</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>262</v>
       </c>
       <c r="G25" s="43"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39" t="s">
+        <v>263</v>
+      </c>
       <c r="I25" s="40" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J25" s="39"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C26" s="37"/>
       <c r="D26" s="43"/>
       <c r="E26" s="36" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="39"/>
       <c r="I26" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J26" s="39"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:14">
-      <c r="B27" s="69"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="102"/>
-    </row>
-    <row r="28" spans="1:14" s="144" customFormat="1" ht="15.5">
-      <c r="A28" s="16" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C27" s="37"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="39"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="69"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="102"/>
+    </row>
+    <row r="29" spans="1:14" s="144" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="B28" s="148">
+      <c r="B29" s="148">
         <v>8</v>
       </c>
-      <c r="C28" s="149" t="s">
+      <c r="C29" s="149" t="s">
         <v>564</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="151" t="s">
+      <c r="D29" s="150"/>
+      <c r="E29" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="152" t="s">
+      <c r="F29" s="152" t="s">
         <v>565</v>
       </c>
-      <c r="G28" s="153"/>
-      <c r="H28" s="154" t="s">
+      <c r="G29" s="153"/>
+      <c r="H29" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="155" t="s">
+      <c r="I29" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="J28" s="152"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="156"/>
-    </row>
-    <row r="29" spans="1:14" ht="29">
-      <c r="C29" s="37"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="J29" s="152"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="156"/>
+    </row>
+    <row r="30" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C30" s="37"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="36">
-        <v>0</v>
+      <c r="E30" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+        <v>184</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>185</v>
+      </c>
       <c r="J30" s="37"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:14">
-      <c r="B31" s="69"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="102"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="14" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C31" s="37"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="36">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="47"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B32" s="69"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="102"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B33" s="53">
         <v>5</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C33" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="78"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="C33" s="37"/>
-      <c r="E33" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>629</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="D33" s="79"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="78"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C34" s="37"/>
       <c r="E34" s="36" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
-      <c r="B35" s="69"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="102"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="14" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C35" s="37"/>
+      <c r="E35" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B36" s="69"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="102"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B37" s="53">
         <v>3</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C37" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D37" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="55" t="s">
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="I36" s="54"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="36" t="s">
+      <c r="I37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F38" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G38" s="38" t="s">
         <v>622</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="C38" s="37"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>623</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J38" s="39"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
-      <c r="M38" s="37"/>
-    </row>
-    <row r="39" spans="1:13" ht="72.5">
+      <c r="M38" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C39" s="37"/>
       <c r="D39" s="43"/>
       <c r="E39" s="36" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="H39" s="113" t="s">
-        <v>233</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="H39" s="39"/>
       <c r="I39" s="40" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="J39" s="39"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="37"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C40" s="37"/>
       <c r="D40" s="43"/>
       <c r="E40" s="36" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="H40" s="39"/>
+        <v>624</v>
+      </c>
+      <c r="H40" s="113" t="s">
+        <v>233</v>
+      </c>
       <c r="I40" s="40" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="J40" s="39"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="37"/>
     </row>
-    <row r="41" spans="1:13">
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="70"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="14" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C41" s="37"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J41" s="39"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="37"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="70"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B43" s="53">
         <v>2</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C43" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D43" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="78" t="s">
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="36" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F44" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G44" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="36" t="s">
+      <c r="H44" s="37"/>
+      <c r="I44" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-    </row>
-    <row r="44" spans="1:13" ht="29">
-      <c r="C44" s="37"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="40" t="s">
-        <v>274</v>
       </c>
       <c r="J44" s="37"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
-      <c r="M44" s="37"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="B45" s="69"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="102"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="14" t="s">
+    </row>
+    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="C45" s="37"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="37"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B46" s="69"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="102"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B47" s="53">
         <v>2</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C47" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D47" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="78" t="s">
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="36" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F48" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H48" s="37" t="s">
         <v>230</v>
-      </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="C48" s="37"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>231</v>
       </c>
       <c r="I48" s="36"/>
       <c r="J48" s="37"/>
       <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="B49" s="69"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="102"/>
-    </row>
-    <row r="50" spans="1:13" ht="43.5">
-      <c r="A50" s="14" t="s">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C49" s="37"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B50" s="69"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="102"/>
+    </row>
+    <row r="51" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B51" s="27">
         <v>2</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D51" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="E50" s="160" t="s">
+      <c r="E51" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="161" t="s">
+      <c r="F51" s="161" t="s">
         <v>664</v>
       </c>
-      <c r="G50" s="162" t="s">
+      <c r="G51" s="162" t="s">
         <v>663</v>
       </c>
-      <c r="H50" s="163" t="s">
+      <c r="H51" s="163" t="s">
         <v>728</v>
       </c>
-      <c r="I50" s="164"/>
-      <c r="J50" s="165"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="160"/>
-      <c r="M50" s="161"/>
-    </row>
-    <row r="51" spans="1:13" s="14" customFormat="1">
-      <c r="A51" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="B51" s="53">
+      <c r="I51" s="164"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="161"/>
+    </row>
+    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="B52" s="53">
         <v>3</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C52" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="D52" s="60" t="s">
         <v>580</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="55" t="s">
+      <c r="E52" s="54"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="55" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="C52" s="37"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="37"/>
-    </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C53" s="37"/>
       <c r="D53" s="43"/>
       <c r="E53" s="36" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J53" s="37"/>
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="37"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C54" s="37"/>
       <c r="D54" s="43"/>
       <c r="E54" s="36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J54" s="37"/>
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="37"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C55" s="37"/>
       <c r="D55" s="43"/>
       <c r="E55" s="36" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J55" s="37"/>
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="37"/>
     </row>
-    <row r="56" spans="1:13" s="188" customFormat="1">
-      <c r="B56" s="171"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="173"/>
-      <c r="E56" s="174" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C56" s="37"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="H56" s="37"/>
+      <c r="I56" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J56" s="37"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="37"/>
+    </row>
+    <row r="57" spans="1:13" s="188" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="171"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="172" t="s">
+      <c r="F57" s="172" t="s">
         <v>587</v>
       </c>
-      <c r="G56" s="189" t="s">
+      <c r="G57" s="189" t="s">
         <v>583</v>
       </c>
-      <c r="H56" s="172"/>
-      <c r="I56" s="174" t="s">
+      <c r="H57" s="172"/>
+      <c r="I57" s="174" t="s">
         <v>203</v>
       </c>
-      <c r="J56" s="172"/>
-      <c r="K56" s="174"/>
-      <c r="L56" s="174"/>
-      <c r="M56" s="172"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="B57" s="167"/>
-      <c r="C57" s="185"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="187"/>
-      <c r="F57" s="185"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="185"/>
-      <c r="I57" s="187"/>
-      <c r="J57" s="185"/>
-      <c r="K57" s="187"/>
-      <c r="L57" s="187"/>
-      <c r="M57" s="185"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="174"/>
+      <c r="L57" s="174"/>
+      <c r="M57" s="172"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B58" s="167"/>
+      <c r="C58" s="185"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="185"/>
+      <c r="G58" s="186"/>
+      <c r="H58" s="185"/>
+      <c r="I58" s="187"/>
+      <c r="J58" s="185"/>
+      <c r="K58" s="187"/>
+      <c r="L58" s="187"/>
+      <c r="M58" s="185"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10725,11 +10732,11 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
@@ -10746,12 +10753,12 @@
     <col min="13" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C1" s="178"/>
       <c r="D1" s="178"/>
@@ -10765,9 +10772,9 @@
       <c r="L1" s="178"/>
       <c r="M1" s="178"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="178"/>
@@ -10782,7 +10789,7 @@
       <c r="L2" s="178"/>
       <c r="M2" s="178"/>
     </row>
-    <row r="3" spans="1:13" s="62" customFormat="1" ht="29">
+    <row r="3" spans="1:13" s="62" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -10820,7 +10827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="58">
+    <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -10850,7 +10857,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -10870,7 +10877,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:13" ht="43.5">
+    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="37"/>
       <c r="C6" s="43"/>
       <c r="D6" s="36" t="s">
@@ -10899,7 +10906,7 @@
       </c>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -10927,7 +10934,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -10951,7 +10958,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:13" ht="29">
+    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="37"/>
       <c r="C9" s="43"/>
       <c r="D9" s="36" t="s">
@@ -10978,7 +10985,7 @@
       </c>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="37"/>
       <c r="C10" s="43"/>
       <c r="D10" s="36" t="s">
@@ -11003,7 +11010,7 @@
       </c>
       <c r="L10" s="37"/>
     </row>
-    <row r="11" spans="1:13" ht="43.5">
+    <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -11027,7 +11034,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -11051,7 +11058,7 @@
       </c>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="37"/>
       <c r="C13" s="43"/>
       <c r="D13" s="36" t="s">
@@ -11076,7 +11083,7 @@
       </c>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="37"/>
       <c r="C14" s="43"/>
       <c r="D14" s="36" t="s">
@@ -11101,7 +11108,7 @@
       </c>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="37"/>
       <c r="C15" s="43"/>
       <c r="D15" s="36" t="s">
@@ -11126,7 +11133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="29">
+    <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="37"/>
       <c r="C16" s="43"/>
       <c r="D16" s="36" t="s">
@@ -11153,7 +11160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
@@ -11175,7 +11182,7 @@
       <c r="K17" s="72"/>
       <c r="L17" s="70"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="53">
         <v>5</v>
       </c>
@@ -11199,7 +11206,7 @@
       </c>
       <c r="L18" s="55"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="37"/>
       <c r="C19" s="43"/>
       <c r="D19" s="36" t="s">
@@ -11224,7 +11231,7 @@
       </c>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="37"/>
       <c r="C20" s="43"/>
       <c r="D20" s="36" t="s">
@@ -11249,7 +11256,7 @@
       </c>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="37"/>
       <c r="C21" s="43"/>
       <c r="D21" s="36" t="s">
@@ -11274,7 +11281,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="37"/>
       <c r="C22" s="43"/>
       <c r="D22" s="36" t="s">
@@ -11299,7 +11306,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="37"/>
       <c r="C23" s="43"/>
       <c r="D23" s="36" t="s">
@@ -11324,7 +11331,7 @@
       </c>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="37"/>
       <c r="C24" s="43"/>
       <c r="D24" s="36" t="s">
@@ -11349,7 +11356,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="29">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
       <c r="C25" s="71"/>
@@ -11373,7 +11380,7 @@
       <c r="K25" s="72"/>
       <c r="L25" s="70"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="53">
         <v>6</v>
       </c>
@@ -11397,7 +11404,7 @@
       </c>
       <c r="L26" s="55"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="37"/>
       <c r="C27" s="43"/>
       <c r="D27" s="36">
@@ -11417,7 +11424,7 @@
       <c r="K27" s="36"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="37"/>
       <c r="C28" s="43"/>
       <c r="D28" s="36">
@@ -11437,7 +11444,7 @@
       <c r="K28" s="36"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="37"/>
       <c r="C29" s="43"/>
       <c r="D29" s="36">
@@ -11457,7 +11464,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="37"/>
       <c r="C30" s="43"/>
       <c r="D30" s="36">
@@ -11477,7 +11484,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="37"/>
       <c r="C31" s="43"/>
       <c r="D31" s="36">
@@ -11497,7 +11504,7 @@
       <c r="K31" s="36"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="37"/>
       <c r="C32" s="43"/>
       <c r="D32" s="36">
@@ -11517,7 +11524,7 @@
       <c r="K32" s="36"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" ht="29">
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="37"/>
       <c r="C33" s="43"/>
       <c r="D33" s="36">
@@ -11542,7 +11549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="43.5">
+    <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B34" s="37"/>
       <c r="C34" s="43"/>
       <c r="D34" s="36" t="s">
@@ -11567,7 +11574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="69"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -11591,7 +11598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="53"/>
       <c r="B36" s="78"/>
       <c r="C36" s="79"/>
@@ -11616,11 +11623,11 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="99" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -11637,27 +11644,27 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="62"/>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -11695,7 +11702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>1</v>
       </c>
@@ -11727,7 +11734,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="109">
         <v>2</v>
       </c>
@@ -11749,7 +11756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
@@ -11769,7 +11776,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>68</v>
       </c>
@@ -11792,7 +11799,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
@@ -11812,7 +11819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>73</v>
       </c>
@@ -11832,7 +11839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>3</v>
       </c>
@@ -11855,7 +11862,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="58">
+    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="158"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -11885,7 +11892,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.5">
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="158"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -11915,7 +11922,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="109">
         <v>3</v>
       </c>
@@ -11937,7 +11944,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" s="36" t="s">
         <v>9</v>
       </c>
@@ -11957,7 +11964,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36" t="s">
         <v>59</v>
       </c>
@@ -11977,7 +11984,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="158"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -11999,7 +12006,7 @@
       <c r="K16" s="89"/>
       <c r="L16" s="90"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="109">
         <v>4</v>
       </c>
@@ -12025,7 +12032,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>87</v>
       </c>
@@ -12045,7 +12052,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>14</v>
       </c>
@@ -12062,7 +12069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>3</v>
       </c>
@@ -12082,7 +12089,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="29">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>34</v>
       </c>
@@ -12102,7 +12109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D22" s="36" t="s">
         <v>5</v>
       </c>
@@ -12122,7 +12129,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
@@ -12142,7 +12149,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="43.5">
+    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
       <c r="D24" s="72" t="s">
@@ -12169,7 +12176,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="99">
         <v>5</v>
       </c>
@@ -12193,7 +12200,7 @@
       </c>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D26" s="36" t="s">
         <v>4</v>
       </c>
@@ -12213,7 +12220,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D27" s="36" t="s">
         <v>6</v>
       </c>
@@ -12233,7 +12240,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D28" s="36" t="s">
         <v>8</v>
       </c>
@@ -12253,7 +12260,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="29">
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="158"/>
       <c r="B29" s="70"/>
       <c r="C29" s="71"/>
@@ -12277,7 +12284,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="70"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="109">
         <v>6</v>
       </c>
@@ -12297,7 +12304,7 @@
       <c r="K30" s="54"/>
       <c r="L30" s="55"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D31" s="36" t="s">
         <v>78</v>
       </c>
@@ -12314,7 +12321,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D32" s="36" t="s">
         <v>87</v>
       </c>
@@ -12331,7 +12338,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="158"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -12353,7 +12360,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="109">
         <v>7</v>
       </c>
@@ -12377,7 +12384,7 @@
       </c>
       <c r="L34" s="55"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D35" s="36">
         <v>1</v>
       </c>
@@ -12391,7 +12398,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D36" s="36">
         <v>2</v>
       </c>
@@ -12405,7 +12412,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D37" s="36">
         <v>3</v>
       </c>
@@ -12419,7 +12426,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D38" s="36" t="s">
         <v>87</v>
       </c>
@@ -12436,7 +12443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="158"/>
       <c r="B39" s="70"/>
       <c r="C39" s="71"/>
@@ -12458,7 +12465,7 @@
       <c r="K39" s="72"/>
       <c r="L39" s="70"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="109">
         <v>8</v>
       </c>
@@ -12482,7 +12489,7 @@
       </c>
       <c r="L40" s="55"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D41" s="36">
         <v>1</v>
       </c>
@@ -12496,7 +12503,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D42" s="36">
         <v>2</v>
       </c>
@@ -12510,7 +12517,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D43" s="36">
         <v>3</v>
       </c>
@@ -12524,7 +12531,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="29">
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="158"/>
       <c r="B44" s="70"/>
       <c r="C44" s="71"/>
@@ -12546,7 +12553,7 @@
       <c r="K44" s="72"/>
       <c r="L44" s="70"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="109">
         <v>9</v>
       </c>
@@ -12570,7 +12577,7 @@
       </c>
       <c r="L45" s="55"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D46" s="36" t="s">
         <v>8</v>
       </c>
@@ -12590,7 +12597,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D47" s="36" t="s">
         <v>4</v>
       </c>
@@ -12610,7 +12617,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="43.5">
+    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="158"/>
       <c r="B48" s="70"/>
       <c r="C48" s="71"/>
@@ -12634,7 +12641,7 @@
       <c r="K48" s="72"/>
       <c r="L48" s="70"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="109">
         <v>10</v>
       </c>
@@ -12658,7 +12665,7 @@
       </c>
       <c r="L49" s="55"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D50" s="36" t="s">
         <v>11</v>
       </c>
@@ -12675,7 +12682,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D51" s="36" t="s">
         <v>4</v>
       </c>
@@ -12695,7 +12702,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="29">
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="158"/>
       <c r="B52" s="70"/>
       <c r="C52" s="71"/>
@@ -12717,7 +12724,7 @@
       <c r="K52" s="72"/>
       <c r="L52" s="70"/>
     </row>
-    <row r="53" spans="1:12" ht="43.5">
+    <row r="53" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="109">
         <v>11</v>
       </c>
@@ -12745,7 +12752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D54" s="36" t="s">
         <v>9</v>
       </c>
@@ -12765,7 +12772,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="158"/>
       <c r="B55" s="70"/>
       <c r="C55" s="71"/>
@@ -12791,7 +12798,7 @@
       </c>
       <c r="L55" s="70"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="109"/>
       <c r="B56" s="55"/>
       <c r="C56" s="61"/>
@@ -12816,11 +12823,11 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -12837,26 +12844,26 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -12894,7 +12901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -12926,7 +12933,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -12948,7 +12955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
@@ -12968,7 +12975,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>68</v>
       </c>
@@ -12991,7 +12998,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
@@ -13011,7 +13018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>73</v>
       </c>
@@ -13031,7 +13038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>3</v>
       </c>
@@ -13054,7 +13061,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="58">
+    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -13084,7 +13091,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.5">
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -13114,7 +13121,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="53">
         <v>3</v>
       </c>
@@ -13136,7 +13143,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" s="36" t="s">
         <v>9</v>
       </c>
@@ -13156,7 +13163,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36" t="s">
         <v>59</v>
       </c>
@@ -13176,7 +13183,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -13198,7 +13205,7 @@
       <c r="K16" s="89"/>
       <c r="L16" s="90"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="53">
         <v>4</v>
       </c>
@@ -13224,7 +13231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="29">
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>87</v>
       </c>
@@ -13247,7 +13254,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="29">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>14</v>
       </c>
@@ -13267,7 +13274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="29">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>3</v>
       </c>
@@ -13290,7 +13297,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="29">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>34</v>
       </c>
@@ -13310,7 +13317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="29">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D22" s="36" t="s">
         <v>5</v>
       </c>
@@ -13333,7 +13340,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="29">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
@@ -13356,7 +13363,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
@@ -13382,7 +13389,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="53">
         <v>5</v>
       </c>
@@ -13406,7 +13413,7 @@
       </c>
       <c r="L25" s="78"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
       <c r="D26" s="36" t="s">
@@ -13431,7 +13438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="49"/>
       <c r="C27" s="50"/>
       <c r="D27" s="36" t="s">
@@ -13456,7 +13463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="102"/>
       <c r="C28" s="103"/>
@@ -13482,7 +13489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="53">
         <v>6</v>
       </c>
@@ -13506,7 +13513,7 @@
       </c>
       <c r="L29" s="78"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
       <c r="D30" s="36" t="s">
@@ -13531,7 +13538,7 @@
       </c>
       <c r="L30" s="49"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
       <c r="D31" s="36" t="s">
@@ -13556,7 +13563,7 @@
       </c>
       <c r="L31" s="49"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="69"/>
       <c r="B32" s="102"/>
       <c r="C32" s="103"/>
@@ -13580,7 +13587,7 @@
       <c r="K32" s="107"/>
       <c r="L32" s="102"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="53">
         <v>7</v>
       </c>
@@ -13604,7 +13611,7 @@
       </c>
       <c r="L33" s="78"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B34" s="49"/>
       <c r="C34" s="50"/>
       <c r="D34" s="36" t="s">
@@ -13629,7 +13636,7 @@
       </c>
       <c r="L34" s="49"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B35" s="49"/>
       <c r="C35" s="50"/>
       <c r="D35" s="36" t="s">
@@ -13654,7 +13661,7 @@
       </c>
       <c r="L35" s="49"/>
     </row>
-    <row r="36" spans="1:12" ht="29">
+    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="69"/>
       <c r="B36" s="102"/>
       <c r="C36" s="103"/>
@@ -13678,7 +13685,7 @@
       <c r="K36" s="107"/>
       <c r="L36" s="102"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="53">
         <v>8</v>
       </c>
@@ -13702,7 +13709,7 @@
       </c>
       <c r="L37" s="78"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
       <c r="D38" s="36" t="s">
@@ -13727,7 +13734,7 @@
       </c>
       <c r="L38" s="49"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
       <c r="D39" s="36" t="s">
@@ -13752,7 +13759,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
       <c r="D40" s="36" t="s">
@@ -13777,7 +13784,7 @@
       </c>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B41" s="49"/>
       <c r="C41" s="50"/>
       <c r="D41" s="36" t="s">
@@ -13802,7 +13809,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B42" s="49"/>
       <c r="C42" s="50"/>
       <c r="D42" s="36" t="s">
@@ -13827,7 +13834,7 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
       <c r="D43" s="36" t="s">
@@ -13850,7 +13857,7 @@
       </c>
       <c r="L43" s="49"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="69"/>
       <c r="B44" s="102"/>
       <c r="C44" s="103"/>
@@ -13874,7 +13881,7 @@
       <c r="K44" s="107"/>
       <c r="L44" s="102"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="53">
         <v>9</v>
       </c>
@@ -13898,7 +13905,7 @@
       </c>
       <c r="L45" s="78"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
       <c r="D46" s="36" t="s">
@@ -13925,7 +13932,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
       <c r="D47" s="36" t="s">
@@ -13952,7 +13959,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:12" ht="29">
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="69"/>
       <c r="B48" s="102"/>
       <c r="C48" s="103"/>
@@ -13976,7 +13983,7 @@
       <c r="K48" s="107"/>
       <c r="L48" s="102"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="53">
         <v>10</v>
       </c>
@@ -14000,7 +14007,7 @@
       </c>
       <c r="L49" s="78"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B50" s="49"/>
       <c r="C50" s="50"/>
       <c r="D50" s="36" t="s">
@@ -14027,7 +14034,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B51" s="49"/>
       <c r="C51" s="50"/>
       <c r="D51" s="36" t="s">
@@ -14054,7 +14061,7 @@
       </c>
       <c r="L51" s="49"/>
     </row>
-    <row r="52" spans="1:12" ht="29">
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="69"/>
       <c r="B52" s="102"/>
       <c r="C52" s="103"/>
@@ -14078,7 +14085,7 @@
       <c r="K52" s="107"/>
       <c r="L52" s="102"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="53">
         <v>11</v>
       </c>
@@ -14102,7 +14109,7 @@
       </c>
       <c r="L53" s="78"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B54" s="49"/>
       <c r="C54" s="50"/>
       <c r="D54" s="36" t="s">
@@ -14127,7 +14134,7 @@
       </c>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B55" s="49"/>
       <c r="C55" s="50"/>
       <c r="D55" s="36" t="s">
@@ -14152,7 +14159,7 @@
       </c>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12" ht="29">
+    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="69"/>
       <c r="B56" s="102"/>
       <c r="C56" s="103"/>
@@ -14176,7 +14183,7 @@
       <c r="K56" s="107"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="53">
         <v>12</v>
       </c>
@@ -14199,7 +14206,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D58" s="36" t="s">
         <v>4</v>
       </c>
@@ -14222,7 +14229,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="29">
+    <row r="59" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D59" s="36" t="s">
         <v>3</v>
       </c>
@@ -14245,7 +14252,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="29">
+    <row r="60" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D60" s="36" t="s">
         <v>8</v>
       </c>
@@ -14268,7 +14275,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="29">
+    <row r="61" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="69"/>
       <c r="B61" s="70"/>
       <c r="C61" s="71"/>
@@ -14292,7 +14299,7 @@
       <c r="K61" s="72"/>
       <c r="L61" s="70"/>
     </row>
-    <row r="62" spans="1:12" ht="43.5">
+    <row r="62" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="109">
         <v>13</v>
       </c>
@@ -14320,7 +14327,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="84"/>
       <c r="D63" s="36" t="s">
         <v>9</v>
@@ -14341,7 +14348,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="88"/>
       <c r="B64" s="70"/>
       <c r="C64" s="71"/>
@@ -14367,7 +14374,7 @@
       </c>
       <c r="L64" s="70"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="55"/>
       <c r="C65" s="61"/>
@@ -14393,10 +14400,10 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -14413,26 +14420,26 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -14470,7 +14477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58">
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -14502,7 +14509,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -14522,7 +14529,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>6</v>
       </c>
@@ -14542,7 +14549,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -14566,7 +14573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="58">
+    <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -14594,7 +14601,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>5</v>
       </c>
@@ -14614,7 +14621,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="69"/>
       <c r="B10" s="70"/>
       <c r="C10" s="71"/>
@@ -14640,7 +14647,7 @@
       </c>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:12" s="18" customFormat="1" ht="72">
+    <row r="11" spans="1:12" s="18" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -14654,17 +14661,17 @@
         <v>407</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="72"/>
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -14688,7 +14695,7 @@
       </c>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" s="36" t="s">
         <v>8</v>
       </c>
@@ -14708,7 +14715,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -14734,7 +14741,7 @@
       </c>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" s="18" customFormat="1" ht="43.5">
+    <row r="15" spans="1:12" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
       <c r="C15" s="71"/>
@@ -14746,17 +14753,17 @@
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="74" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I15" s="74"/>
       <c r="J15" s="72"/>
       <c r="K15" s="72"/>
       <c r="L15" s="70"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="53">
         <v>5</v>
       </c>
@@ -14780,7 +14787,7 @@
       </c>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
@@ -14800,7 +14807,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>10</v>
       </c>
@@ -14820,7 +14827,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>34</v>
       </c>
@@ -14840,7 +14847,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>11</v>
       </c>
@@ -14860,7 +14867,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>12</v>
       </c>
@@ -14880,7 +14887,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
@@ -14904,7 +14911,7 @@
       </c>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12" s="18" customFormat="1" ht="43.5">
+    <row r="23" spans="1:12" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
       <c r="C23" s="71"/>
@@ -14921,14 +14928,14 @@
         <v>313</v>
       </c>
       <c r="H23" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
       <c r="L23" s="70"/>
     </row>
-    <row r="24" spans="1:12" ht="58">
+    <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="53">
         <v>6</v>
       </c>
@@ -14956,7 +14963,7 @@
       </c>
       <c r="L24" s="55"/>
     </row>
-    <row r="25" spans="1:12" ht="29">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D25" s="36" t="s">
         <v>9</v>
       </c>
@@ -14979,7 +14986,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="58">
+    <row r="26" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -15009,7 +15016,7 @@
       </c>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="53">
         <v>7</v>
       </c>
@@ -15033,7 +15040,7 @@
       </c>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D28" s="36" t="s">
         <v>4</v>
       </c>
@@ -15056,7 +15063,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="36" t="s">
         <v>3</v>
       </c>
@@ -15076,7 +15083,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="69"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
@@ -15102,7 +15109,7 @@
       </c>
       <c r="L30" s="70"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="53"/>
       <c r="B31" s="55"/>
       <c r="C31" s="61"/>
@@ -15130,7 +15137,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="115" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="110" bestFit="1" customWidth="1"/>
@@ -15146,12 +15153,12 @@
     <col min="12" max="12" width="23.36328125" style="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -15164,9 +15171,9 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -15180,7 +15187,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -15218,7 +15225,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58">
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -15252,7 +15259,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -15272,7 +15279,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
@@ -15300,7 +15307,7 @@
       </c>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="37"/>
       <c r="C7" s="43"/>
@@ -15330,7 +15337,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="71"/>
@@ -15356,7 +15363,7 @@
       </c>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="53">
         <v>3</v>
       </c>
@@ -15378,7 +15385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -15400,7 +15407,7 @@
       <c r="K10" s="36"/>
       <c r="L10" s="49"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="43"/>
@@ -15422,7 +15429,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="29">
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -15446,7 +15453,7 @@
       <c r="K12" s="89"/>
       <c r="L12" s="90"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="53">
         <v>4</v>
       </c>
@@ -15470,7 +15477,7 @@
       </c>
       <c r="L13" s="55"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -15496,7 +15503,7 @@
       </c>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="37"/>
       <c r="C15" s="43"/>
@@ -15522,7 +15529,7 @@
       </c>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -15544,7 +15551,7 @@
       <c r="K16" s="72"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="53">
         <v>5</v>
       </c>
@@ -15568,7 +15575,7 @@
       </c>
       <c r="L17" s="55"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -15596,7 +15603,7 @@
       </c>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="29">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
       <c r="C19" s="71"/>
@@ -15624,7 +15631,7 @@
       </c>
       <c r="L19" s="70"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="53">
         <v>6</v>
       </c>
@@ -15648,7 +15655,7 @@
       </c>
       <c r="L20" s="55"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -15674,7 +15681,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="43"/>
@@ -15700,7 +15707,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="43"/>
@@ -15726,7 +15733,7 @@
       </c>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="37"/>
       <c r="C24" s="43"/>
@@ -15752,7 +15759,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="37"/>
       <c r="C25" s="43"/>
@@ -15778,7 +15785,7 @@
       </c>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="37"/>
       <c r="C26" s="43"/>
@@ -15802,7 +15809,7 @@
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -15824,10 +15831,10 @@
       <c r="K27" s="72"/>
       <c r="L27" s="70"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="116"/>
       <c r="B28" s="181" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="119"/>
@@ -15854,7 +15861,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -15871,12 +15878,12 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -15889,9 +15896,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -15905,7 +15912,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -15943,7 +15950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -15975,7 +15982,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="29">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -15997,7 +16004,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
       <c r="D6" s="36" t="s">
@@ -16019,7 +16026,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>61</v>
       </c>
@@ -16039,7 +16046,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -16059,7 +16066,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>34</v>
       </c>
@@ -16079,7 +16086,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.5">
+    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>87</v>
       </c>
@@ -16099,7 +16106,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>174</v>
       </c>
@@ -16119,7 +16126,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D12" s="36" t="s">
         <v>14</v>
       </c>
@@ -16139,7 +16146,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
       <c r="C13" s="71"/>
@@ -16165,7 +16172,7 @@
       </c>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="53">
         <v>3</v>
       </c>
@@ -16189,7 +16196,7 @@
       </c>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36">
         <v>1</v>
       </c>
@@ -16209,7 +16216,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" s="36">
         <v>2</v>
       </c>
@@ -16229,7 +16236,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D17" s="36">
         <v>3</v>
       </c>
@@ -16252,7 +16259,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="43.5">
+    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
       <c r="C18" s="71"/>
@@ -16276,7 +16283,7 @@
       <c r="K18" s="72"/>
       <c r="L18" s="70"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="53">
         <v>4</v>
       </c>
@@ -16300,7 +16307,7 @@
       </c>
       <c r="L19" s="55"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>5</v>
       </c>
@@ -16323,7 +16330,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>6</v>
       </c>
@@ -16346,7 +16353,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="29">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
@@ -16370,7 +16377,7 @@
       <c r="K22" s="72"/>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="53">
         <v>5</v>
       </c>
@@ -16394,7 +16401,7 @@
       </c>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D24" s="36" t="s">
         <v>8</v>
       </c>
@@ -16414,7 +16421,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="29">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D25" s="36" t="s">
         <v>4</v>
       </c>
@@ -16437,7 +16444,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -16459,7 +16466,7 @@
       <c r="K26" s="72"/>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="53">
         <v>6</v>
       </c>
@@ -16483,7 +16490,7 @@
       </c>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D28" s="36" t="s">
         <v>9</v>
       </c>
@@ -16503,7 +16510,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="36" t="s">
         <v>10</v>
       </c>
@@ -16523,7 +16530,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D30" s="36" t="s">
         <v>34</v>
       </c>
@@ -16543,7 +16550,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D31" s="36" t="s">
         <v>11</v>
       </c>
@@ -16563,7 +16570,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="69"/>
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
@@ -16589,7 +16596,7 @@
       </c>
       <c r="L32" s="70"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="53">
         <v>7</v>
       </c>
@@ -16613,7 +16620,7 @@
       </c>
       <c r="L33" s="55"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D34" s="36" t="s">
         <v>9</v>
       </c>
@@ -16633,7 +16640,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="29">
+    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="69"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -16663,7 +16670,7 @@
       </c>
       <c r="L35" s="70"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="53"/>
       <c r="B36" s="55"/>
       <c r="C36" s="61"/>
@@ -16691,7 +16698,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.453125" style="37" bestFit="1" customWidth="1"/>
@@ -16708,12 +16715,12 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -16726,9 +16733,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -16742,7 +16749,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -16780,7 +16787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="72.5">
+    <row r="4" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -16812,7 +16819,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -16832,7 +16839,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
@@ -16852,7 +16859,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>3</v>
       </c>
@@ -16872,7 +16879,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -16892,7 +16899,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -16916,15 +16923,15 @@
       <c r="K9" s="72"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="53">
         <v>3</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -16936,7 +16943,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>59</v>
       </c>
@@ -16944,7 +16951,7 @@
         <v>464</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>196</v>
@@ -16956,7 +16963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="176" customFormat="1">
+    <row r="12" spans="1:12" s="176" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="171"/>
       <c r="B12" s="172"/>
       <c r="C12" s="173"/>
@@ -16967,18 +16974,18 @@
         <v>462</v>
       </c>
       <c r="F12" s="175" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G12" s="172"/>
       <c r="H12" s="174" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I12" s="172"/>
       <c r="J12" s="174"/>
       <c r="K12" s="174"/>
       <c r="L12" s="172"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="167"/>
       <c r="B13" s="168"/>
       <c r="C13" s="169"/>
@@ -17007,7 +17014,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" style="37" bestFit="1" customWidth="1"/>
@@ -17024,9 +17031,9 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -17040,9 +17047,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -17056,7 +17063,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="122" t="s">
         <v>393</v>
       </c>
@@ -17094,7 +17101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -17126,7 +17133,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -17150,7 +17157,7 @@
       </c>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
@@ -17170,7 +17177,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -17196,7 +17203,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -17220,7 +17227,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>8</v>
       </c>
@@ -17243,7 +17250,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>4</v>
       </c>
@@ -17266,7 +17273,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="29">
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -17290,7 +17297,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -17316,7 +17323,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.5">
+    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D13" s="36" t="s">
         <v>10</v>
       </c>
@@ -17333,7 +17340,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" s="36" t="s">
         <v>34</v>
       </c>
@@ -17350,7 +17357,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36" t="s">
         <v>11</v>
       </c>
@@ -17364,7 +17371,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -17388,7 +17395,7 @@
       <c r="K16" s="72"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="53"/>
       <c r="B17" s="55"/>
       <c r="C17" s="61"/>
